--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_21_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_21_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49962.37213544376</v>
+        <v>38803.76248553361</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18266454.8412371</v>
+        <v>18185477.69840984</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2441834.196365247</v>
+        <v>2483142.964389945</v>
       </c>
     </row>
     <row r="11">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.01547051877183849</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.7330732454824584</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>12.56209233042347</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>5.200981756320544</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7485437642542886</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>20.16697784598549</v>
+        <v>33.0558113702057</v>
       </c>
       <c r="E8" t="n">
-        <v>20.16697784598549</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>30.52566786491413</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>19.22352837197766</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>18.70652356075183</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>5.808809210202192</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>34.25063875717579</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>37.52930446208642</v>
       </c>
     </row>
     <row r="10">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235972</v>
       </c>
       <c r="D11" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>66.89487755631828</v>
+        <v>75.94786280235972</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>31.21809620174881</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>35.67678135456964</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>75.94786280235972</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.228584518226626</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.33532272952758</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>66.89487755631825</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235972</v>
       </c>
       <c r="V12" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235972</v>
       </c>
       <c r="W12" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235972</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>31.33097030856423</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>21.14745823304608</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.43521272596432</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>5.712245507081562</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>75.94786280235971</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>75.94786280235971</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>51.06139321367294</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>15.83348434264533</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.89487755631839</v>
       </c>
       <c r="T14" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235971</v>
       </c>
       <c r="U14" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>47.33251183838482</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.85634635615704</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.228584518226626</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>66.89487755631824</v>
+        <v>75.94786280235971</v>
       </c>
       <c r="W15" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235971</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>21.14745823304588</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>21.14745823304608</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235965</v>
       </c>
       <c r="H17" t="n">
-        <v>35.67678135456943</v>
+        <v>75.94786280235965</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>31.21809620174886</v>
+        <v>31.21809620174884</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>75.94786280235951</v>
+        <v>35.6767813545695</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>75.94786280235965</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>66.89487755631805</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>43.03853120016122</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.85634635615706</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>75.94786280235965</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>75.94786280235965</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>75.94786280235951</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235965</v>
       </c>
     </row>
     <row r="19">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>21.14745823304598</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>21.14745823304588</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>75.94786280235959</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>75.94786280235959</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>66.89487755631824</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>31.21809620174884</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>35.67678135456947</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>75.94786280235959</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,23 +2159,23 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>66.89487755631824</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>75.94786280235959</v>
       </c>
       <c r="T21" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235959</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>75.94786280235959</v>
       </c>
       <c r="W21" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>21.14745823304597</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>21.14745823304588</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,64 +2329,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>199.042108720954</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>213.8998645763261</v>
+      </c>
+      <c r="U23" t="n">
         <v>219.5565574740962</v>
       </c>
-      <c r="H23" t="n">
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>219.5565574740962</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>193.3854158231838</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>35.49376133073509</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>23.94971778700823</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U24" t="n">
         <v>195.3283754674364</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>28.23631971346524</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>191.2211343439799</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,70 +2554,70 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>193.3854158231838</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>219.5565574740961</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>199.0421087209538</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>213.8998645763261</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>219.5565574740961</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>52.89948722242372</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>10.34094182947057</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>28.23631971346524</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>191.2211343439799</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>219.5565574740961</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
         <v>219.5565574740961</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>193.3854158231838</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="Y29" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3283754674364</v>
+        <v>152.3764207556808</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>23.20403983092403</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.39842501387593</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.2211343439799</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>219.5565574740961</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>193.3854158231838</v>
       </c>
       <c r="W32" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>46.07616275087509</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.70128436951478</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424961</v>
+        <v>102.6274657187718</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>26.26673587051636</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.9543984734636</v>
+        <v>21.83869563007922</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="V35" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>219.5565574740961</v>
+        <v>167.140338277152</v>
       </c>
       <c r="X35" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>161.483645379382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>72.77623149104582</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V36" t="n">
-        <v>8.408354303843566</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>17.55899135242036</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>33.32143611366081</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="E38" t="n">
-        <v>193.3854158231838</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>91.13088952452651</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
     </row>
     <row r="39">
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>105.6845722892616</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>30.2729696041848</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>17.55899135242036</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>191.2211343439799</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>193.3854158231838</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="F41" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>193.3854158231839</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.49655819925236</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>27.546893609617</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>191.22113434398</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>191.2211343439799</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>193.385415823184</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="G44" t="n">
-        <v>219.5565574740965</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>91.13088952452648</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>72.77623149104656</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3283754674364</v>
+        <v>110.296666918674</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>191.2211343439803</v>
+        <v>191.2211343439799</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.62898501431706</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.62898501431706</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>8.029492740843512</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>27.99480080836914</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>47.96010887589478</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>62.74103909306096</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>62.74103909306096</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>62.74103909306096</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>42.37035440014633</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>21.99966970723169</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>21.99966970723169</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>21.99966970723169</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.62898501431706</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.62898501431706</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.62898501431706</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>20.37398739551631</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>40.33929546304194</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>60.30460353056756</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>69.02825335942674</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>67.97892923199905</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>67.97892923199905</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>67.97892923199905</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>42.3547276135081</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1.613358227678839</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.72541230642274</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="C8" t="n">
-        <v>42.3547276135081</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="D8" t="n">
-        <v>21.98404292059347</v>
+        <v>116.7275093935924</v>
       </c>
       <c r="E8" t="n">
-        <v>1.613358227678839</v>
+        <v>78.81912104805059</v>
       </c>
       <c r="F8" t="n">
-        <v>1.613358227678839</v>
+        <v>40.91073270250875</v>
       </c>
       <c r="G8" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H8" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I8" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J8" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K8" t="n">
-        <v>1.613358227678839</v>
+        <v>8.579347327526888</v>
       </c>
       <c r="L8" t="n">
-        <v>8.029492740843512</v>
+        <v>30.44332621730854</v>
       </c>
       <c r="M8" t="n">
-        <v>27.99480080836914</v>
+        <v>67.59733763477409</v>
       </c>
       <c r="N8" t="n">
-        <v>47.96010887589478</v>
+        <v>104.7513490522396</v>
       </c>
       <c r="O8" t="n">
-        <v>63.48151711880081</v>
+        <v>136.7661938505104</v>
       </c>
       <c r="P8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="R8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="S8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="T8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="U8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="V8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="W8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="X8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Y8" t="n">
-        <v>63.48151711880081</v>
+        <v>150.1172178483457</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.66791138394194</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="C9" t="n">
-        <v>80.66791138394194</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="D9" t="n">
-        <v>80.66791138394194</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="E9" t="n">
-        <v>80.66791138394194</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="F9" t="n">
-        <v>60.2972266910273</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="G9" t="n">
-        <v>40.87952126478724</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H9" t="n">
-        <v>20.50883657187261</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I9" t="n">
-        <v>20.50883657187261</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J9" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K9" t="n">
-        <v>1.613358227678839</v>
+        <v>11.45991954906473</v>
       </c>
       <c r="L9" t="n">
-        <v>20.37398739551631</v>
+        <v>41.5928022922832</v>
       </c>
       <c r="M9" t="n">
-        <v>40.33929546304194</v>
+        <v>78.74681370974875</v>
       </c>
       <c r="N9" t="n">
-        <v>49.06294529190112</v>
+        <v>113.3971790766907</v>
       </c>
       <c r="O9" t="n">
-        <v>69.02825335942674</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="P9" t="n">
-        <v>80.66791138394194</v>
+        <v>150.1172178483457</v>
       </c>
       <c r="Q9" t="n">
-        <v>80.66791138394194</v>
+        <v>144.2497337976364</v>
       </c>
       <c r="R9" t="n">
-        <v>80.66791138394194</v>
+        <v>109.6531289924083</v>
       </c>
       <c r="S9" t="n">
-        <v>80.66791138394194</v>
+        <v>109.6531289924083</v>
       </c>
       <c r="T9" t="n">
-        <v>80.66791138394194</v>
+        <v>109.6531289924083</v>
       </c>
       <c r="U9" t="n">
-        <v>80.66791138394194</v>
+        <v>71.74474064686646</v>
       </c>
       <c r="V9" t="n">
-        <v>80.66791138394194</v>
+        <v>71.74474064686646</v>
       </c>
       <c r="W9" t="n">
-        <v>80.66791138394194</v>
+        <v>71.74474064686646</v>
       </c>
       <c r="X9" t="n">
-        <v>80.66791138394194</v>
+        <v>71.74474064686646</v>
       </c>
       <c r="Y9" t="n">
-        <v>80.66791138394194</v>
+        <v>33.83635230132462</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="C10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="D10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="E10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="F10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="G10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="H10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="I10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="J10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="K10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="L10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="M10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="N10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="O10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="P10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="R10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="S10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="T10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="U10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="V10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="W10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="X10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.613358227678839</v>
+        <v>3.002344356966913</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.791451209438</v>
+        <v>159.5058548875418</v>
       </c>
       <c r="C11" t="n">
-        <v>227.0764382777618</v>
+        <v>82.79084195586528</v>
       </c>
       <c r="D11" t="n">
-        <v>150.3614253460855</v>
+        <v>82.79084195586528</v>
       </c>
       <c r="E11" t="n">
-        <v>73.64641241440926</v>
+        <v>82.79084195586528</v>
       </c>
       <c r="F11" t="n">
-        <v>73.64641241440926</v>
+        <v>82.79084195586528</v>
       </c>
       <c r="G11" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188778</v>
       </c>
       <c r="H11" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188778</v>
       </c>
       <c r="I11" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188778</v>
       </c>
       <c r="J11" t="n">
-        <v>8.518653200747888</v>
+        <v>8.518653200747956</v>
       </c>
       <c r="K11" t="n">
-        <v>32.72891329418867</v>
+        <v>32.72891329418885</v>
       </c>
       <c r="L11" t="n">
-        <v>77.70909531020689</v>
+        <v>77.70909531020718</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5843367211125</v>
+        <v>140.5843367211129</v>
       </c>
       <c r="N11" t="n">
-        <v>206.3455576655149</v>
+        <v>206.3455576655155</v>
       </c>
       <c r="O11" t="n">
-        <v>263.0412330294159</v>
+        <v>263.0412330294166</v>
       </c>
       <c r="P11" t="n">
-        <v>297.4567749038205</v>
+        <v>297.4567749038213</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094389</v>
       </c>
       <c r="R11" t="n">
-        <v>303.791451209438</v>
+        <v>272.2580207026219</v>
       </c>
       <c r="S11" t="n">
-        <v>303.791451209438</v>
+        <v>236.2208678192183</v>
       </c>
       <c r="T11" t="n">
-        <v>303.791451209438</v>
+        <v>236.2208678192183</v>
       </c>
       <c r="U11" t="n">
-        <v>303.791451209438</v>
+        <v>236.2208678192183</v>
       </c>
       <c r="V11" t="n">
-        <v>303.791451209438</v>
+        <v>236.2208678192183</v>
       </c>
       <c r="W11" t="n">
-        <v>303.791451209438</v>
+        <v>236.2208678192183</v>
       </c>
       <c r="X11" t="n">
-        <v>303.791451209438</v>
+        <v>159.5058548875418</v>
       </c>
       <c r="Y11" t="n">
-        <v>303.791451209438</v>
+        <v>159.5058548875418</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.075829024188761</v>
+        <v>12.36732853754901</v>
       </c>
       <c r="C12" t="n">
-        <v>6.075829024188761</v>
+        <v>12.36732853754901</v>
       </c>
       <c r="D12" t="n">
-        <v>6.075829024188761</v>
+        <v>12.36732853754901</v>
       </c>
       <c r="E12" t="n">
-        <v>6.075829024188761</v>
+        <v>12.36732853754901</v>
       </c>
       <c r="F12" t="n">
-        <v>6.075829024188761</v>
+        <v>12.36732853754901</v>
       </c>
       <c r="G12" t="n">
-        <v>6.075829024188761</v>
+        <v>12.36732853754901</v>
       </c>
       <c r="H12" t="n">
-        <v>6.075829024188761</v>
+        <v>12.36732853754901</v>
       </c>
       <c r="I12" t="n">
-        <v>6.075829024188761</v>
+        <v>12.36732853754901</v>
       </c>
       <c r="J12" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188778</v>
       </c>
       <c r="K12" t="n">
-        <v>27.18934645194802</v>
+        <v>27.18934645194813</v>
       </c>
       <c r="L12" t="n">
-        <v>74.33970537129221</v>
+        <v>74.33970537129241</v>
       </c>
       <c r="M12" t="n">
-        <v>137.2014819011798</v>
+        <v>137.2014819011801</v>
       </c>
       <c r="N12" t="n">
-        <v>207.5625237956372</v>
+        <v>207.5625237956376</v>
       </c>
       <c r="O12" t="n">
-        <v>262.9301139282919</v>
+        <v>262.9301139282924</v>
       </c>
       <c r="P12" t="n">
-        <v>299.5375944741908</v>
+        <v>299.5375944741914</v>
       </c>
       <c r="Q12" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094389</v>
       </c>
       <c r="R12" t="n">
-        <v>303.791451209438</v>
+        <v>274.159812088704</v>
       </c>
       <c r="S12" t="n">
-        <v>303.791451209438</v>
+        <v>274.159812088704</v>
       </c>
       <c r="T12" t="n">
-        <v>236.2208678192176</v>
+        <v>274.159812088704</v>
       </c>
       <c r="U12" t="n">
-        <v>159.5058548875413</v>
+        <v>197.4447991570275</v>
       </c>
       <c r="V12" t="n">
-        <v>82.79084195586503</v>
+        <v>120.729786225351</v>
       </c>
       <c r="W12" t="n">
-        <v>6.075829024188761</v>
+        <v>44.01477329367449</v>
       </c>
       <c r="X12" t="n">
-        <v>6.075829024188761</v>
+        <v>12.36732853754901</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.075829024188761</v>
+        <v>12.36732853754901</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="C13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="D13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="E13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="F13" t="n">
-        <v>27.43689794645733</v>
+        <v>6.075829024188778</v>
       </c>
       <c r="G13" t="n">
-        <v>27.43689794645733</v>
+        <v>6.075829024188778</v>
       </c>
       <c r="H13" t="n">
-        <v>27.43689794645733</v>
+        <v>6.075829024188778</v>
       </c>
       <c r="I13" t="n">
-        <v>27.43689794645733</v>
+        <v>6.075829024188778</v>
       </c>
       <c r="J13" t="n">
-        <v>11.8457739808368</v>
+        <v>6.075829024188778</v>
       </c>
       <c r="K13" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188778</v>
       </c>
       <c r="L13" t="n">
-        <v>10.95106657773219</v>
+        <v>10.95106657773225</v>
       </c>
       <c r="M13" t="n">
-        <v>17.41092563994137</v>
+        <v>17.41092563994148</v>
       </c>
       <c r="N13" t="n">
-        <v>26.8994816840551</v>
+        <v>26.89948168405527</v>
       </c>
       <c r="O13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="P13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="R13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="S13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="T13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="U13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="V13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="W13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="X13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.65299388648467</v>
+        <v>82.79084195586526</v>
       </c>
       <c r="C14" t="n">
-        <v>57.65299388648467</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="D14" t="n">
-        <v>57.65299388648467</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="E14" t="n">
-        <v>57.65299388648467</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="F14" t="n">
-        <v>57.65299388648467</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="G14" t="n">
-        <v>57.65299388648467</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="H14" t="n">
-        <v>57.65299388648467</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="I14" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="J14" t="n">
-        <v>8.518653200747877</v>
+        <v>8.518653200747792</v>
       </c>
       <c r="K14" t="n">
         <v>32.72891329418866</v>
       </c>
       <c r="L14" t="n">
-        <v>77.70909531020686</v>
+        <v>77.709095310207</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211127</v>
       </c>
       <c r="N14" t="n">
-        <v>206.3455576655149</v>
+        <v>206.3455576655152</v>
       </c>
       <c r="O14" t="n">
-        <v>263.0412330294159</v>
+        <v>263.0412330294164</v>
       </c>
       <c r="P14" t="n">
-        <v>297.4567749038205</v>
+        <v>297.4567749038213</v>
       </c>
       <c r="Q14" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094388</v>
       </c>
       <c r="R14" t="n">
-        <v>287.7980326815134</v>
+        <v>303.7914512094388</v>
       </c>
       <c r="S14" t="n">
-        <v>287.7980326815134</v>
+        <v>236.2208678192182</v>
       </c>
       <c r="T14" t="n">
-        <v>211.0830197498372</v>
+        <v>159.5058548875417</v>
       </c>
       <c r="U14" t="n">
-        <v>134.3680068181609</v>
+        <v>159.5058548875417</v>
       </c>
       <c r="V14" t="n">
-        <v>57.65299388648467</v>
+        <v>159.5058548875417</v>
       </c>
       <c r="W14" t="n">
-        <v>57.65299388648467</v>
+        <v>159.5058548875417</v>
       </c>
       <c r="X14" t="n">
-        <v>57.65299388648467</v>
+        <v>159.5058548875417</v>
       </c>
       <c r="Y14" t="n">
-        <v>57.65299388648467</v>
+        <v>159.5058548875417</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.07582902418876</v>
+        <v>150.3614253460859</v>
       </c>
       <c r="C15" t="n">
-        <v>6.07582902418876</v>
+        <v>150.3614253460859</v>
       </c>
       <c r="D15" t="n">
-        <v>6.07582902418876</v>
+        <v>150.3614253460859</v>
       </c>
       <c r="E15" t="n">
-        <v>6.07582902418876</v>
+        <v>102.5508073275153</v>
       </c>
       <c r="F15" t="n">
-        <v>6.07582902418876</v>
+        <v>102.5508073275153</v>
       </c>
       <c r="G15" t="n">
-        <v>6.07582902418876</v>
+        <v>102.5508073275153</v>
       </c>
       <c r="H15" t="n">
-        <v>6.07582902418876</v>
+        <v>36.46464808922279</v>
       </c>
       <c r="I15" t="n">
-        <v>6.07582902418876</v>
+        <v>12.367328537549</v>
       </c>
       <c r="J15" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="K15" t="n">
-        <v>27.18934645194803</v>
+        <v>27.18934645194815</v>
       </c>
       <c r="L15" t="n">
-        <v>74.33970537129223</v>
+        <v>74.33970537129244</v>
       </c>
       <c r="M15" t="n">
-        <v>137.2014819011797</v>
+        <v>137.2014819011801</v>
       </c>
       <c r="N15" t="n">
-        <v>207.5625237956372</v>
+        <v>207.5625237956377</v>
       </c>
       <c r="O15" t="n">
-        <v>262.9301139282918</v>
+        <v>262.9301139282925</v>
       </c>
       <c r="P15" t="n">
-        <v>299.5375944741908</v>
+        <v>299.5375944741916</v>
       </c>
       <c r="Q15" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094388</v>
       </c>
       <c r="R15" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094388</v>
       </c>
       <c r="S15" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094388</v>
       </c>
       <c r="T15" t="n">
-        <v>227.0764382777617</v>
+        <v>303.7914512094388</v>
       </c>
       <c r="U15" t="n">
-        <v>150.3614253460855</v>
+        <v>303.7914512094388</v>
       </c>
       <c r="V15" t="n">
-        <v>82.79084195586502</v>
+        <v>227.0764382777623</v>
       </c>
       <c r="W15" t="n">
-        <v>6.07582902418876</v>
+        <v>150.3614253460859</v>
       </c>
       <c r="X15" t="n">
-        <v>6.07582902418876</v>
+        <v>150.3614253460859</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.07582902418876</v>
+        <v>150.3614253460859</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="C16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="D16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="E16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="F16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="G16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="H16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="I16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="J16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="K16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="L16" t="n">
-        <v>10.95106657773219</v>
+        <v>10.95106657773225</v>
       </c>
       <c r="M16" t="n">
-        <v>17.41092563994137</v>
+        <v>17.41092563994148</v>
       </c>
       <c r="N16" t="n">
-        <v>26.8994816840551</v>
+        <v>26.89948168405527</v>
       </c>
       <c r="O16" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="P16" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="R16" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="S16" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="T16" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645755</v>
       </c>
       <c r="U16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="V16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="W16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="X16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188777</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>195.5430077709448</v>
+        <v>159.5058548875416</v>
       </c>
       <c r="C17" t="n">
-        <v>195.5430077709448</v>
+        <v>159.5058548875416</v>
       </c>
       <c r="D17" t="n">
-        <v>195.5430077709448</v>
+        <v>159.5058548875416</v>
       </c>
       <c r="E17" t="n">
-        <v>195.5430077709448</v>
+        <v>159.5058548875416</v>
       </c>
       <c r="F17" t="n">
-        <v>118.8279948392685</v>
+        <v>159.5058548875416</v>
       </c>
       <c r="G17" t="n">
-        <v>42.11298190759223</v>
+        <v>82.7908419558652</v>
       </c>
       <c r="H17" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="I17" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="J17" t="n">
-        <v>8.518653200747883</v>
+        <v>8.518653200747931</v>
       </c>
       <c r="K17" t="n">
-        <v>32.72891329418866</v>
+        <v>32.72891329418894</v>
       </c>
       <c r="L17" t="n">
-        <v>77.70909531020686</v>
+        <v>77.7090953102072</v>
       </c>
       <c r="M17" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211128</v>
       </c>
       <c r="N17" t="n">
-        <v>206.3455576655149</v>
+        <v>206.3455576655153</v>
       </c>
       <c r="O17" t="n">
-        <v>263.0412330294159</v>
+        <v>263.0412330294164</v>
       </c>
       <c r="P17" t="n">
-        <v>297.4567749038205</v>
+        <v>297.4567749038211</v>
       </c>
       <c r="Q17" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094386</v>
       </c>
       <c r="R17" t="n">
-        <v>272.258020702621</v>
+        <v>272.2580207026216</v>
       </c>
       <c r="S17" t="n">
-        <v>272.258020702621</v>
+        <v>272.2580207026216</v>
       </c>
       <c r="T17" t="n">
-        <v>195.5430077709448</v>
+        <v>236.2208678192181</v>
       </c>
       <c r="U17" t="n">
-        <v>195.5430077709448</v>
+        <v>236.2208678192181</v>
       </c>
       <c r="V17" t="n">
-        <v>195.5430077709448</v>
+        <v>236.2208678192181</v>
       </c>
       <c r="W17" t="n">
-        <v>195.5430077709448</v>
+        <v>159.5058548875416</v>
       </c>
       <c r="X17" t="n">
-        <v>195.5430077709448</v>
+        <v>159.5058548875416</v>
       </c>
       <c r="Y17" t="n">
-        <v>195.5430077709448</v>
+        <v>159.5058548875416</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="C18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="D18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="E18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="F18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="G18" t="n">
-        <v>73.64641241440926</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="H18" t="n">
-        <v>30.17314857586256</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="I18" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="J18" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="K18" t="n">
-        <v>27.18934645194804</v>
+        <v>27.18934645194808</v>
       </c>
       <c r="L18" t="n">
-        <v>74.33970537129223</v>
+        <v>74.33970537129231</v>
       </c>
       <c r="M18" t="n">
-        <v>137.2014819011798</v>
+        <v>137.2014819011799</v>
       </c>
       <c r="N18" t="n">
-        <v>207.5625237956372</v>
+        <v>207.5625237956374</v>
       </c>
       <c r="O18" t="n">
-        <v>262.9301139282919</v>
+        <v>262.9301139282921</v>
       </c>
       <c r="P18" t="n">
-        <v>299.5375944741908</v>
+        <v>299.5375944741911</v>
       </c>
       <c r="Q18" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R18" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S18" t="n">
-        <v>303.791451209438</v>
+        <v>227.0764382777619</v>
       </c>
       <c r="T18" t="n">
-        <v>303.791451209438</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="U18" t="n">
-        <v>303.791451209438</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="V18" t="n">
-        <v>303.791451209438</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="W18" t="n">
-        <v>227.0764382777618</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="X18" t="n">
         <v>150.3614253460855</v>
       </c>
       <c r="Y18" t="n">
-        <v>73.64641241440926</v>
+        <v>73.64641241440904</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
       <c r="C19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
       <c r="D19" t="n">
-        <v>27.43689794645733</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="E19" t="n">
-        <v>27.43689794645733</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="F19" t="n">
-        <v>27.43689794645733</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="G19" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="H19" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="I19" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="J19" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="K19" t="n">
-        <v>6.075829024188761</v>
+        <v>6.075829024188772</v>
       </c>
       <c r="L19" t="n">
-        <v>10.95106657773219</v>
+        <v>10.95106657773222</v>
       </c>
       <c r="M19" t="n">
-        <v>17.41092563994137</v>
+        <v>17.41092563994142</v>
       </c>
       <c r="N19" t="n">
-        <v>26.8994816840551</v>
+        <v>26.89948168405518</v>
       </c>
       <c r="O19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
       <c r="P19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
       <c r="R19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
       <c r="S19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
       <c r="T19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
       <c r="U19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
       <c r="V19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
       <c r="W19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
       <c r="X19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
       <c r="Y19" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645744</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>150.3614253460855</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="C20" t="n">
-        <v>73.64641241440921</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="D20" t="n">
-        <v>73.64641241440921</v>
+        <v>82.79084195586513</v>
       </c>
       <c r="E20" t="n">
-        <v>73.64641241440921</v>
+        <v>82.79084195586513</v>
       </c>
       <c r="F20" t="n">
-        <v>73.64641241440921</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="G20" t="n">
-        <v>73.64641241440921</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="H20" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="I20" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188767</v>
       </c>
       <c r="J20" t="n">
-        <v>8.518653200747892</v>
+        <v>8.518653200747897</v>
       </c>
       <c r="K20" t="n">
-        <v>32.72891329418867</v>
+        <v>32.72891329418874</v>
       </c>
       <c r="L20" t="n">
-        <v>77.70909531020678</v>
+        <v>77.709095310207</v>
       </c>
       <c r="M20" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211126</v>
       </c>
       <c r="N20" t="n">
-        <v>206.3455576655148</v>
+        <v>206.3455576655151</v>
       </c>
       <c r="O20" t="n">
-        <v>263.0412330294158</v>
+        <v>263.0412330294162</v>
       </c>
       <c r="P20" t="n">
-        <v>297.4567749038205</v>
+        <v>297.4567749038209</v>
       </c>
       <c r="Q20" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094384</v>
       </c>
       <c r="R20" t="n">
-        <v>303.791451209438</v>
+        <v>272.2580207026214</v>
       </c>
       <c r="S20" t="n">
-        <v>303.791451209438</v>
+        <v>272.2580207026214</v>
       </c>
       <c r="T20" t="n">
-        <v>227.0764382777617</v>
+        <v>272.2580207026214</v>
       </c>
       <c r="U20" t="n">
-        <v>227.0764382777617</v>
+        <v>236.2208678192179</v>
       </c>
       <c r="V20" t="n">
-        <v>227.0764382777617</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="W20" t="n">
-        <v>227.0764382777617</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="X20" t="n">
-        <v>227.0764382777617</v>
+        <v>159.5058548875415</v>
       </c>
       <c r="Y20" t="n">
-        <v>150.3614253460855</v>
+        <v>159.5058548875415</v>
       </c>
     </row>
     <row r="21">
@@ -5807,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="C21" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="D21" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="E21" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="F21" t="n">
-        <v>6.07582902418876</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="G21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="H21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="I21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="J21" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="K21" t="n">
-        <v>27.18934645194804</v>
+        <v>27.18934645194807</v>
       </c>
       <c r="L21" t="n">
-        <v>74.33970537129223</v>
+        <v>74.33970537129231</v>
       </c>
       <c r="M21" t="n">
-        <v>137.2014819011798</v>
+        <v>137.2014819011799</v>
       </c>
       <c r="N21" t="n">
-        <v>207.5625237956372</v>
+        <v>207.5625237956374</v>
       </c>
       <c r="O21" t="n">
-        <v>262.9301139282919</v>
+        <v>262.9301139282921</v>
       </c>
       <c r="P21" t="n">
-        <v>299.5375944741908</v>
+        <v>299.5375944741911</v>
       </c>
       <c r="Q21" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="R21" t="n">
-        <v>303.791451209438</v>
+        <v>303.7914512094383</v>
       </c>
       <c r="S21" t="n">
-        <v>303.791451209438</v>
+        <v>227.076438277762</v>
       </c>
       <c r="T21" t="n">
-        <v>227.0764382777617</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="U21" t="n">
-        <v>227.0764382777617</v>
+        <v>150.3614253460856</v>
       </c>
       <c r="V21" t="n">
-        <v>227.0764382777617</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="W21" t="n">
-        <v>150.3614253460855</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="X21" t="n">
         <v>73.64641241440921</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="C22" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="D22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="E22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="F22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="G22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="H22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="I22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="J22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="K22" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188768</v>
       </c>
       <c r="L22" t="n">
-        <v>10.95106657773219</v>
+        <v>10.95106657773222</v>
       </c>
       <c r="M22" t="n">
-        <v>17.41092563994137</v>
+        <v>17.41092563994142</v>
       </c>
       <c r="N22" t="n">
-        <v>26.8994816840551</v>
+        <v>26.89948168405517</v>
       </c>
       <c r="O22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="P22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="R22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="S22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="T22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="U22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="V22" t="n">
-        <v>27.43689794645733</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="W22" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="X22" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645743</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645743</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>461.1131255556978</v>
+        <v>218.6171596695984</v>
       </c>
       <c r="C23" t="n">
-        <v>461.1131255556978</v>
+        <v>218.6171596695984</v>
       </c>
       <c r="D23" t="n">
-        <v>461.1131255556978</v>
+        <v>218.6171596695984</v>
       </c>
       <c r="E23" t="n">
-        <v>461.1131255556978</v>
+        <v>218.6171596695984</v>
       </c>
       <c r="F23" t="n">
-        <v>461.1131255556978</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G23" t="n">
-        <v>239.3388250768127</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H23" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I23" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J23" t="n">
-        <v>61.76566646422704</v>
+        <v>61.76566646422702</v>
       </c>
       <c r="K23" t="n">
-        <v>148.5608200474251</v>
+        <v>148.5608200474253</v>
       </c>
       <c r="L23" t="n">
-        <v>271.1830965723307</v>
+        <v>271.1830965723309</v>
       </c>
       <c r="M23" t="n">
-        <v>420.4501281543857</v>
+        <v>420.4501281543859</v>
       </c>
       <c r="N23" t="n">
-        <v>574.0010487547427</v>
+        <v>574.0010487547428</v>
       </c>
       <c r="O23" t="n">
-        <v>713.5940480809667</v>
+        <v>713.5940480809668</v>
       </c>
       <c r="P23" t="n">
-        <v>818.7605380598412</v>
+        <v>818.7605380598413</v>
       </c>
       <c r="Q23" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R23" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="S23" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963849</v>
       </c>
       <c r="T23" t="n">
-        <v>682.8874260345829</v>
+        <v>662.1657606273686</v>
       </c>
       <c r="U23" t="n">
-        <v>682.8874260345829</v>
+        <v>440.3914601484835</v>
       </c>
       <c r="V23" t="n">
-        <v>682.8874260345829</v>
+        <v>440.3914601484835</v>
       </c>
       <c r="W23" t="n">
-        <v>682.8874260345829</v>
+        <v>218.6171596695984</v>
       </c>
       <c r="X23" t="n">
-        <v>682.8874260345829</v>
+        <v>218.6171596695984</v>
       </c>
       <c r="Y23" t="n">
-        <v>461.1131255556978</v>
+        <v>218.6171596695984</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>268.4567536295896</v>
+        <v>147.9950646007175</v>
       </c>
       <c r="C24" t="n">
-        <v>134.4616823785353</v>
+        <v>147.9950646007175</v>
       </c>
       <c r="D24" t="n">
-        <v>17.56452459792769</v>
+        <v>147.9950646007175</v>
       </c>
       <c r="E24" t="n">
-        <v>17.56452459792769</v>
+        <v>147.9950646007175</v>
       </c>
       <c r="F24" t="n">
-        <v>17.56452459792769</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="G24" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H24" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I24" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J24" t="n">
         <v>36.2691938677774</v>
@@ -6098,22 +6098,22 @@
         <v>715.3219541700623</v>
       </c>
       <c r="T24" t="n">
-        <v>715.3219541700623</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="U24" t="n">
-        <v>518.0205648090155</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="V24" t="n">
-        <v>304.3090378020493</v>
+        <v>147.9950646007175</v>
       </c>
       <c r="W24" t="n">
-        <v>304.3090378020493</v>
+        <v>147.9950646007175</v>
       </c>
       <c r="X24" t="n">
-        <v>304.3090378020493</v>
+        <v>147.9950646007175</v>
       </c>
       <c r="Y24" t="n">
-        <v>304.3090378020493</v>
+        <v>147.9950646007175</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="C25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="D25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E25" t="n">
-        <v>182.1956504873364</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F25" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G25" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H25" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I25" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J25" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K25" t="n">
         <v>37.55032788682519</v>
@@ -6177,22 +6177,22 @@
         <v>210.7171855514427</v>
       </c>
       <c r="T25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="U25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="V25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="W25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="X25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="Y25" t="n">
-        <v>210.7171855514427</v>
+        <v>17.5645245979277</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>682.8874260345826</v>
+        <v>440.3914601484832</v>
       </c>
       <c r="C26" t="n">
-        <v>682.8874260345826</v>
+        <v>440.3914601484832</v>
       </c>
       <c r="D26" t="n">
-        <v>461.1131255556976</v>
+        <v>440.3914601484832</v>
       </c>
       <c r="E26" t="n">
-        <v>239.3388250768127</v>
+        <v>218.6171596695982</v>
       </c>
       <c r="F26" t="n">
-        <v>17.56452459792769</v>
+        <v>218.6171596695982</v>
       </c>
       <c r="G26" t="n">
         <v>17.56452459792769</v>
@@ -6226,10 +6226,10 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J26" t="n">
-        <v>61.76566646422702</v>
+        <v>61.765666464227</v>
       </c>
       <c r="K26" t="n">
-        <v>148.5608200474252</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L26" t="n">
         <v>271.1830965723307</v>
@@ -6256,22 +6256,22 @@
         <v>878.2262298963844</v>
       </c>
       <c r="T26" t="n">
-        <v>878.2262298963844</v>
+        <v>662.1657606273682</v>
       </c>
       <c r="U26" t="n">
-        <v>878.2262298963844</v>
+        <v>662.1657606273682</v>
       </c>
       <c r="V26" t="n">
-        <v>878.2262298963844</v>
+        <v>662.1657606273682</v>
       </c>
       <c r="W26" t="n">
-        <v>878.2262298963844</v>
+        <v>440.3914601484832</v>
       </c>
       <c r="X26" t="n">
-        <v>878.2262298963844</v>
+        <v>440.3914601484832</v>
       </c>
       <c r="Y26" t="n">
-        <v>878.2262298963844</v>
+        <v>440.3914601484832</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>134.4616823785353</v>
+        <v>204.9934213261777</v>
       </c>
       <c r="C27" t="n">
-        <v>134.4616823785353</v>
+        <v>70.99835007512337</v>
       </c>
       <c r="D27" t="n">
-        <v>17.56452459792769</v>
+        <v>70.99835007512337</v>
       </c>
       <c r="E27" t="n">
         <v>17.56452459792769</v>
@@ -6335,22 +6335,22 @@
         <v>715.3219541700623</v>
       </c>
       <c r="T27" t="n">
-        <v>715.3219541700623</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="U27" t="n">
-        <v>518.0205648090155</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="V27" t="n">
-        <v>304.3090378020493</v>
+        <v>345.2964539617643</v>
       </c>
       <c r="W27" t="n">
-        <v>293.8636420147052</v>
+        <v>345.2964539617643</v>
       </c>
       <c r="X27" t="n">
-        <v>293.8636420147052</v>
+        <v>345.2964539617643</v>
       </c>
       <c r="Y27" t="n">
-        <v>134.4616823785353</v>
+        <v>345.2964539617643</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="C28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="D28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="E28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="F28" t="n">
-        <v>17.56452459792769</v>
+        <v>46.08605966203399</v>
       </c>
       <c r="G28" t="n">
         <v>17.56452459792769</v>
@@ -6414,22 +6414,22 @@
         <v>210.7171855514427</v>
       </c>
       <c r="T28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="X28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Y28" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>656.4519294174995</v>
+      </c>
+      <c r="C29" t="n">
+        <v>656.4519294174995</v>
+      </c>
+      <c r="D29" t="n">
+        <v>656.4519294174995</v>
+      </c>
+      <c r="E29" t="n">
         <v>434.6776289386145</v>
       </c>
-      <c r="C29" t="n">
-        <v>434.6776289386145</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
         <v>212.9033284597296</v>
-      </c>
-      <c r="E29" t="n">
-        <v>17.56452459792769</v>
-      </c>
-      <c r="F29" t="n">
-        <v>17.56452459792769</v>
       </c>
       <c r="G29" t="n">
         <v>17.56452459792769</v>
@@ -6463,28 +6463,28 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J29" t="n">
-        <v>61.76566646422704</v>
+        <v>61.765666464227</v>
       </c>
       <c r="K29" t="n">
         <v>148.5608200474251</v>
       </c>
       <c r="L29" t="n">
-        <v>271.1830965723306</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M29" t="n">
-        <v>420.4501281543856</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N29" t="n">
-        <v>574.0010487547424</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O29" t="n">
-        <v>713.5940480809664</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P29" t="n">
-        <v>818.760538059841</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q29" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R29" t="n">
         <v>878.2262298963844</v>
@@ -6505,7 +6505,7 @@
         <v>878.2262298963844</v>
       </c>
       <c r="X29" t="n">
-        <v>878.2262298963844</v>
+        <v>656.4519294174995</v>
       </c>
       <c r="Y29" t="n">
         <v>656.4519294174995</v>
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17.56452459792769</v>
+        <v>134.4616823785353</v>
       </c>
       <c r="C30" t="n">
-        <v>17.56452459792769</v>
+        <v>134.4616823785353</v>
       </c>
       <c r="D30" t="n">
         <v>17.56452459792769</v>
@@ -6566,28 +6566,28 @@
         <v>715.3219541700623</v>
       </c>
       <c r="R30" t="n">
-        <v>702.3665110839293</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S30" t="n">
-        <v>608.329838238913</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T30" t="n">
-        <v>452.0158650375812</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="U30" t="n">
-        <v>254.7144756765343</v>
+        <v>561.4063776491727</v>
       </c>
       <c r="V30" t="n">
-        <v>41.00294866956813</v>
+        <v>347.6948506422065</v>
       </c>
       <c r="W30" t="n">
-        <v>17.56452459792769</v>
+        <v>134.4616823785353</v>
       </c>
       <c r="X30" t="n">
-        <v>17.56452459792769</v>
+        <v>134.4616823785353</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.56452459792769</v>
+        <v>134.4616823785353</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I31" t="n">
-        <v>23.01747915739833</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J31" t="n">
         <v>17.56452459792769</v>
@@ -6651,22 +6651,22 @@
         <v>210.7171855514427</v>
       </c>
       <c r="T31" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="U31" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="V31" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="W31" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="X31" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="Y31" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.56452459792769</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="C32" t="n">
-        <v>17.56452459792769</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="D32" t="n">
-        <v>17.56452459792769</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="E32" t="n">
         <v>17.56452459792769</v>
@@ -6700,28 +6700,28 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J32" t="n">
-        <v>61.76566646422704</v>
+        <v>61.765666464227</v>
       </c>
       <c r="K32" t="n">
         <v>148.5608200474251</v>
       </c>
       <c r="L32" t="n">
-        <v>271.1830965723305</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M32" t="n">
-        <v>420.4501281543855</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N32" t="n">
-        <v>574.0010487547424</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O32" t="n">
-        <v>713.5940480809664</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P32" t="n">
-        <v>818.760538059841</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q32" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R32" t="n">
         <v>878.2262298963844</v>
@@ -6739,13 +6739,13 @@
         <v>682.8874260345826</v>
       </c>
       <c r="W32" t="n">
-        <v>461.1131255556976</v>
+        <v>682.8874260345826</v>
       </c>
       <c r="X32" t="n">
-        <v>239.3388250768127</v>
+        <v>682.8874260345826</v>
       </c>
       <c r="Y32" t="n">
-        <v>239.3388250768127</v>
+        <v>682.8874260345826</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>382.6819991076233</v>
+        <v>254.9544983862073</v>
       </c>
       <c r="C33" t="n">
-        <v>248.686927856569</v>
+        <v>254.9544983862073</v>
       </c>
       <c r="D33" t="n">
-        <v>248.686927856569</v>
+        <v>138.0573406055997</v>
       </c>
       <c r="E33" t="n">
-        <v>248.686927856569</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F33" t="n">
-        <v>202.1453493203315</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G33" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H33" t="n">
-        <v>32.41430678935676</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I33" t="n">
         <v>17.56452459792769</v>
@@ -6809,22 +6809,22 @@
         <v>715.3219541700623</v>
       </c>
       <c r="T33" t="n">
-        <v>559.0079809687305</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="U33" t="n">
-        <v>559.0079809687305</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="V33" t="n">
-        <v>559.0079809687305</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="W33" t="n">
-        <v>559.0079809687305</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="X33" t="n">
-        <v>382.6819991076233</v>
+        <v>414.3564580223772</v>
       </c>
       <c r="Y33" t="n">
-        <v>382.6819991076233</v>
+        <v>254.9544983862073</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="C34" t="n">
-        <v>851.6941734615194</v>
+        <v>39.62381311315923</v>
       </c>
       <c r="D34" t="n">
-        <v>851.6941734615194</v>
+        <v>39.62381311315923</v>
       </c>
       <c r="E34" t="n">
-        <v>851.6941734615194</v>
+        <v>39.62381311315923</v>
       </c>
       <c r="F34" t="n">
-        <v>851.6941734615194</v>
+        <v>39.62381311315923</v>
       </c>
       <c r="G34" t="n">
-        <v>685.0735689428693</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H34" t="n">
-        <v>685.0735689428693</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I34" t="n">
-        <v>685.0735689428693</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J34" t="n">
-        <v>685.0735689428693</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="K34" t="n">
-        <v>705.0593722317668</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L34" t="n">
-        <v>742.7461676397088</v>
+        <v>75.23712329476716</v>
       </c>
       <c r="M34" t="n">
-        <v>783.8012139394987</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N34" t="n">
-        <v>827.0623609927289</v>
+        <v>159.5533166477872</v>
       </c>
       <c r="O34" t="n">
-        <v>858.794231304305</v>
+        <v>191.2851869593632</v>
       </c>
       <c r="P34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Q34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="R34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="S34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="X34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.2262298963844</v>
+        <v>210.7171855514427</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>49.78853514722242</v>
+        <v>271.5628356261074</v>
       </c>
       <c r="C35" t="n">
-        <v>49.78853514722242</v>
+        <v>271.5628356261074</v>
       </c>
       <c r="D35" t="n">
-        <v>49.78853514722242</v>
+        <v>271.5628356261074</v>
       </c>
       <c r="E35" t="n">
-        <v>49.78853514722242</v>
+        <v>271.5628356261074</v>
       </c>
       <c r="F35" t="n">
-        <v>49.78853514722242</v>
+        <v>271.5628356261074</v>
       </c>
       <c r="G35" t="n">
         <v>49.78853514722242</v>
@@ -6937,25 +6937,25 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J35" t="n">
-        <v>61.76566646422691</v>
+        <v>61.765666464227</v>
       </c>
       <c r="K35" t="n">
         <v>148.5608200474251</v>
       </c>
       <c r="L35" t="n">
-        <v>271.1830965723306</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M35" t="n">
-        <v>420.4501281543855</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N35" t="n">
-        <v>574.0010487547423</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O35" t="n">
-        <v>713.5940480809663</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P35" t="n">
-        <v>818.7605380598409</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q35" t="n">
         <v>878.2262298963844</v>
@@ -6967,22 +6967,22 @@
         <v>878.2262298963844</v>
       </c>
       <c r="T35" t="n">
-        <v>878.2262298963844</v>
+        <v>662.1657606273682</v>
       </c>
       <c r="U35" t="n">
-        <v>878.2262298963844</v>
+        <v>440.3914601484832</v>
       </c>
       <c r="V35" t="n">
-        <v>656.4519294174995</v>
+        <v>440.3914601484832</v>
       </c>
       <c r="W35" t="n">
-        <v>434.6776289386145</v>
+        <v>271.5628356261074</v>
       </c>
       <c r="X35" t="n">
-        <v>212.9033284597296</v>
+        <v>271.5628356261074</v>
       </c>
       <c r="Y35" t="n">
-        <v>49.78853514722242</v>
+        <v>271.5628356261074</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.56452459792769</v>
+        <v>91.07586953837802</v>
       </c>
       <c r="C36" t="n">
-        <v>17.56452459792769</v>
+        <v>91.07586953837802</v>
       </c>
       <c r="D36" t="n">
-        <v>17.56452459792769</v>
+        <v>91.07586953837802</v>
       </c>
       <c r="E36" t="n">
-        <v>17.56452459792769</v>
+        <v>91.07586953837802</v>
       </c>
       <c r="F36" t="n">
-        <v>17.56452459792769</v>
+        <v>91.07586953837802</v>
       </c>
       <c r="G36" t="n">
         <v>17.56452459792769</v>
@@ -7049,19 +7049,19 @@
         <v>715.3219541700623</v>
       </c>
       <c r="U36" t="n">
-        <v>715.3219541700623</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="V36" t="n">
-        <v>706.8286669944628</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="W36" t="n">
-        <v>493.5954987307915</v>
+        <v>91.07586953837802</v>
       </c>
       <c r="X36" t="n">
-        <v>317.2695168696843</v>
+        <v>91.07586953837802</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.8675572335143</v>
+        <v>91.07586953837802</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="C37" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="D37" t="n">
-        <v>17.56452459792769</v>
+        <v>51.22254087435275</v>
       </c>
       <c r="E37" t="n">
-        <v>17.56452459792769</v>
+        <v>51.22254087435275</v>
       </c>
       <c r="F37" t="n">
-        <v>17.56452459792769</v>
+        <v>51.22254087435275</v>
       </c>
       <c r="G37" t="n">
         <v>17.56452459792769</v>
@@ -7122,25 +7122,25 @@
         <v>210.7171855514427</v>
       </c>
       <c r="S37" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T37" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U37" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V37" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W37" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="X37" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514427</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.9033284597296</v>
+        <v>331.3902286369405</v>
       </c>
       <c r="C38" t="n">
-        <v>212.9033284597296</v>
+        <v>331.3902286369405</v>
       </c>
       <c r="D38" t="n">
-        <v>212.9033284597296</v>
+        <v>109.6159281580555</v>
       </c>
       <c r="E38" t="n">
-        <v>17.56452459792769</v>
+        <v>109.6159281580555</v>
       </c>
       <c r="F38" t="n">
         <v>17.56452459792769</v>
@@ -7174,52 +7174,52 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J38" t="n">
-        <v>61.765666464227</v>
+        <v>61.76566646422691</v>
       </c>
       <c r="K38" t="n">
         <v>148.5608200474251</v>
       </c>
       <c r="L38" t="n">
-        <v>271.1830965723307</v>
+        <v>271.1830965723306</v>
       </c>
       <c r="M38" t="n">
-        <v>420.4501281543857</v>
+        <v>420.4501281543855</v>
       </c>
       <c r="N38" t="n">
-        <v>574.0010487547427</v>
+        <v>574.0010487547424</v>
       </c>
       <c r="O38" t="n">
-        <v>713.5940480809666</v>
+        <v>713.5940480809664</v>
       </c>
       <c r="P38" t="n">
-        <v>818.7605380598412</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q38" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="R38" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963846</v>
       </c>
       <c r="S38" t="n">
-        <v>878.2262298963847</v>
+        <v>774.9388295947106</v>
       </c>
       <c r="T38" t="n">
-        <v>878.2262298963847</v>
+        <v>774.9388295947106</v>
       </c>
       <c r="U38" t="n">
-        <v>878.2262298963847</v>
+        <v>774.9388295947106</v>
       </c>
       <c r="V38" t="n">
-        <v>656.4519294174996</v>
+        <v>774.9388295947106</v>
       </c>
       <c r="W38" t="n">
-        <v>434.6776289386146</v>
+        <v>774.9388295947106</v>
       </c>
       <c r="X38" t="n">
-        <v>212.9033284597296</v>
+        <v>774.9388295947106</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.9033284597296</v>
+        <v>553.1645291158255</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>361.7065916076837</v>
+        <v>288.3772588994249</v>
       </c>
       <c r="C39" t="n">
-        <v>254.9544983862073</v>
+        <v>154.3821876483706</v>
       </c>
       <c r="D39" t="n">
-        <v>138.0573406055997</v>
+        <v>154.3821876483706</v>
       </c>
       <c r="E39" t="n">
-        <v>17.56452459792769</v>
+        <v>154.3821876483706</v>
       </c>
       <c r="F39" t="n">
-        <v>17.56452459792769</v>
+        <v>154.3821876483706</v>
       </c>
       <c r="G39" t="n">
-        <v>17.56452459792769</v>
+        <v>48.14328177387193</v>
       </c>
       <c r="H39" t="n">
         <v>17.56452459792769</v>
@@ -7283,22 +7283,22 @@
         <v>715.3219541700623</v>
       </c>
       <c r="T39" t="n">
-        <v>559.0079809687305</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="U39" t="n">
-        <v>361.7065916076837</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="V39" t="n">
-        <v>361.7065916076837</v>
+        <v>501.6104271630961</v>
       </c>
       <c r="W39" t="n">
-        <v>361.7065916076837</v>
+        <v>288.3772588994249</v>
       </c>
       <c r="X39" t="n">
-        <v>361.7065916076837</v>
+        <v>288.3772588994249</v>
       </c>
       <c r="Y39" t="n">
-        <v>361.7065916076837</v>
+        <v>288.3772588994249</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="C40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="D40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="E40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="F40" t="n">
         <v>17.56452459792769</v>
@@ -7359,25 +7359,25 @@
         <v>210.7171855514427</v>
       </c>
       <c r="S40" t="n">
-        <v>210.7171855514427</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="T40" t="n">
-        <v>210.7171855514427</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="U40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="V40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="W40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="X40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>682.8874260345829</v>
+        <v>656.4519294174996</v>
       </c>
       <c r="C41" t="n">
-        <v>682.8874260345829</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="D41" t="n">
-        <v>682.8874260345829</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="E41" t="n">
-        <v>682.8874260345829</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F41" t="n">
-        <v>461.1131255556978</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G41" t="n">
-        <v>239.3388250768128</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H41" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I41" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J41" t="n">
-        <v>61.76566646422691</v>
+        <v>61.76566646422702</v>
       </c>
       <c r="K41" t="n">
-        <v>148.560820047425</v>
+        <v>148.5608200474252</v>
       </c>
       <c r="L41" t="n">
-        <v>271.1830965723305</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M41" t="n">
-        <v>420.4501281543855</v>
+        <v>420.4501281543859</v>
       </c>
       <c r="N41" t="n">
-        <v>574.0010487547423</v>
+        <v>574.0010487547428</v>
       </c>
       <c r="O41" t="n">
-        <v>713.5940480809664</v>
+        <v>713.5940480809668</v>
       </c>
       <c r="P41" t="n">
-        <v>818.7605380598411</v>
+        <v>818.7605380598412</v>
       </c>
       <c r="Q41" t="n">
         <v>878.2262298963847</v>
       </c>
       <c r="R41" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="S41" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="T41" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="U41" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="V41" t="n">
-        <v>878.2262298963848</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="W41" t="n">
-        <v>682.8874260345829</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="X41" t="n">
-        <v>682.8874260345829</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="Y41" t="n">
-        <v>682.8874260345829</v>
+        <v>878.2262298963847</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.0573406055997</v>
+        <v>81.05666125440382</v>
       </c>
       <c r="C42" t="n">
-        <v>138.0573406055997</v>
+        <v>81.05666125440382</v>
       </c>
       <c r="D42" t="n">
-        <v>138.0573406055997</v>
+        <v>81.05666125440382</v>
       </c>
       <c r="E42" t="n">
-        <v>17.5645245979277</v>
+        <v>81.05666125440382</v>
       </c>
       <c r="F42" t="n">
-        <v>17.5645245979277</v>
+        <v>81.05666125440382</v>
       </c>
       <c r="G42" t="n">
-        <v>17.5645245979277</v>
+        <v>81.05666125440382</v>
       </c>
       <c r="H42" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I42" t="n">
-        <v>17.5645245979277</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J42" t="n">
         <v>36.2691938677774</v>
@@ -7520,22 +7520,22 @@
         <v>715.3219541700623</v>
       </c>
       <c r="T42" t="n">
-        <v>715.3219541700623</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="U42" t="n">
-        <v>715.3219541700623</v>
+        <v>508.0013565250413</v>
       </c>
       <c r="V42" t="n">
-        <v>501.6104271630961</v>
+        <v>294.2898295180751</v>
       </c>
       <c r="W42" t="n">
-        <v>473.7852821028769</v>
+        <v>81.05666125440382</v>
       </c>
       <c r="X42" t="n">
-        <v>297.4593002417697</v>
+        <v>81.05666125440382</v>
       </c>
       <c r="Y42" t="n">
-        <v>138.0573406055997</v>
+        <v>81.05666125440382</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="K43" t="n">
-        <v>705.0593722317672</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L43" t="n">
-        <v>742.7461676397091</v>
+        <v>75.23712329476716</v>
       </c>
       <c r="M43" t="n">
-        <v>783.801213939499</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N43" t="n">
-        <v>827.0623609927293</v>
+        <v>159.5533166477872</v>
       </c>
       <c r="O43" t="n">
-        <v>858.7942313043053</v>
+        <v>191.2851869593632</v>
       </c>
       <c r="P43" t="n">
-        <v>878.2262298963848</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Q43" t="n">
-        <v>878.2262298963848</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="R43" t="n">
-        <v>878.2262298963848</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="S43" t="n">
-        <v>878.2262298963848</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T43" t="n">
-        <v>878.2262298963848</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U43" t="n">
-        <v>878.2262298963848</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V43" t="n">
-        <v>685.0735689428697</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="X43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="Y43" t="n">
-        <v>685.0735689428697</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>656.4519294175004</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="C44" t="n">
-        <v>434.6776289386151</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="D44" t="n">
-        <v>239.338825076813</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="E44" t="n">
-        <v>239.338825076813</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="F44" t="n">
-        <v>239.338825076813</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G44" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H44" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I44" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J44" t="n">
-        <v>61.76566646422715</v>
+        <v>61.76566646422702</v>
       </c>
       <c r="K44" t="n">
-        <v>148.5608200474254</v>
+        <v>148.5608200474252</v>
       </c>
       <c r="L44" t="n">
-        <v>271.183096572331</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M44" t="n">
-        <v>420.4501281543862</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N44" t="n">
-        <v>574.0010487547434</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O44" t="n">
-        <v>713.5940480809676</v>
+        <v>713.5940480809666</v>
       </c>
       <c r="P44" t="n">
-        <v>818.7605380598422</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q44" t="n">
-        <v>878.2262298963858</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="R44" t="n">
-        <v>878.2262298963858</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="S44" t="n">
-        <v>878.2262298963858</v>
+        <v>774.9388295947105</v>
       </c>
       <c r="T44" t="n">
-        <v>878.2262298963858</v>
+        <v>774.9388295947105</v>
       </c>
       <c r="U44" t="n">
-        <v>878.2262298963858</v>
+        <v>774.9388295947105</v>
       </c>
       <c r="V44" t="n">
-        <v>878.2262298963858</v>
+        <v>553.1645291158254</v>
       </c>
       <c r="W44" t="n">
-        <v>878.2262298963858</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="X44" t="n">
-        <v>878.2262298963858</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="Y44" t="n">
-        <v>878.2262298963858</v>
+        <v>461.1131255556976</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C45" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D45" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E45" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F45" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G45" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H45" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I45" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J45" t="n">
-        <v>36.26919386777748</v>
+        <v>36.2691938677774</v>
       </c>
       <c r="K45" t="n">
-        <v>99.89115689943323</v>
+        <v>99.89115689943307</v>
       </c>
       <c r="L45" t="n">
-        <v>204.1993668012283</v>
+        <v>204.1993668012281</v>
       </c>
       <c r="M45" t="n">
-        <v>333.7616594659747</v>
+        <v>333.7616594659743</v>
       </c>
       <c r="N45" t="n">
-        <v>472.5885816838006</v>
+        <v>472.5885816838001</v>
       </c>
       <c r="O45" t="n">
-        <v>590.5890764169</v>
+        <v>590.5890764168994</v>
       </c>
       <c r="P45" t="n">
-        <v>677.4649847190649</v>
+        <v>677.4649847190642</v>
       </c>
       <c r="Q45" t="n">
-        <v>715.3219541700631</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="R45" t="n">
-        <v>715.3219541700631</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S45" t="n">
-        <v>641.8106092296121</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T45" t="n">
-        <v>641.8106092296121</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="U45" t="n">
-        <v>444.5092198685651</v>
+        <v>603.9111795047351</v>
       </c>
       <c r="V45" t="n">
-        <v>230.797692861599</v>
+        <v>390.1996524977689</v>
       </c>
       <c r="W45" t="n">
-        <v>17.56452459792771</v>
+        <v>176.9664842340977</v>
       </c>
       <c r="X45" t="n">
-        <v>17.56452459792771</v>
+        <v>176.9664842340977</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="K46" t="n">
-        <v>37.55032788682527</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L46" t="n">
-        <v>75.23712329476731</v>
+        <v>75.23712329476716</v>
       </c>
       <c r="M46" t="n">
-        <v>116.2921695945572</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N46" t="n">
-        <v>159.5533166477875</v>
+        <v>159.5533166477872</v>
       </c>
       <c r="O46" t="n">
-        <v>191.2851869593636</v>
+        <v>191.2851869593632</v>
       </c>
       <c r="P46" t="n">
-        <v>210.7171855514432</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Q46" t="n">
-        <v>210.7171855514432</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="R46" t="n">
-        <v>210.7171855514432</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="S46" t="n">
-        <v>210.7171855514432</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T46" t="n">
-        <v>210.7171855514432</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="V46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="W46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="X46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.56452459792771</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
   </sheetData>
@@ -22789,7 +22789,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>400.4038200890982</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22798,22 +22798,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.1097092771328</v>
+        <v>403.9948574388665</v>
       </c>
       <c r="H5" t="n">
-        <v>302.3583183165892</v>
+        <v>301.182091927944</v>
       </c>
       <c r="I5" t="n">
-        <v>65.00561065159138</v>
+        <v>60.57778515682809</v>
       </c>
       <c r="J5" t="n">
-        <v>28.23084788503724</v>
+        <v>18.48294167697897</v>
       </c>
       <c r="K5" t="n">
-        <v>21.55405633213152</v>
+        <v>6.944471810258847</v>
       </c>
       <c r="L5" t="n">
-        <v>11.64353751452478</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,31 +22822,31 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>17.24891115298081</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>32.66024662599554</v>
+        <v>20.2575401764107</v>
       </c>
       <c r="R5" t="n">
-        <v>53.93837241300997</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S5" t="n">
-        <v>121.8214482553398</v>
+        <v>99.03728414485995</v>
       </c>
       <c r="T5" t="n">
-        <v>217.6586885309231</v>
+        <v>196.9889467629267</v>
       </c>
       <c r="U5" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4381953169066</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>359.7557200101976</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -22877,19 +22877,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.6359452837665</v>
+        <v>105.5744941327544</v>
       </c>
       <c r="H6" t="n">
-        <v>67.29432707308776</v>
+        <v>66.70083832515573</v>
       </c>
       <c r="I6" t="n">
-        <v>30.51932592171037</v>
+        <v>28.40357357326966</v>
       </c>
       <c r="J6" t="n">
-        <v>24.51230971842843</v>
+        <v>18.70652356075183</v>
       </c>
       <c r="K6" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,25 +22907,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.40627785259142</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.35075441487444</v>
+        <v>37.53539260028506</v>
       </c>
       <c r="S6" t="n">
-        <v>101.6299884061901</v>
+        <v>100.4885602284008</v>
       </c>
       <c r="T6" t="n">
-        <v>156.6026526013526</v>
+        <v>151.1539795828388</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3586010245425</v>
+        <v>175.1875803396747</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>191.407433890911</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>190.933858735049</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -22956,49 +22956,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.339567867843</v>
+        <v>165.2880492871125</v>
       </c>
       <c r="H7" t="n">
-        <v>145.9925054484174</v>
+        <v>145.5344584306495</v>
       </c>
       <c r="I7" t="n">
-        <v>108.0156742482211</v>
+        <v>106.4663700204336</v>
       </c>
       <c r="J7" t="n">
-        <v>34.58397146501913</v>
+        <v>30.94160780737001</v>
       </c>
       <c r="K7" t="n">
-        <v>24.56200045719904</v>
+        <v>18.57647807777823</v>
       </c>
       <c r="L7" t="n">
-        <v>19.19671421534549</v>
+        <v>11.53730631291606</v>
       </c>
       <c r="M7" t="n">
-        <v>18.90730960179207</v>
+        <v>10.83153789691311</v>
       </c>
       <c r="N7" t="n">
-        <v>15.24329362330671</v>
+        <v>7.359545719332466</v>
       </c>
       <c r="O7" t="n">
-        <v>22.38954887144386</v>
+        <v>15.1076316605491</v>
       </c>
       <c r="P7" t="n">
-        <v>26.95620607407936</v>
+        <v>20.72526791008761</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.40353443947923</v>
+        <v>37.08955582939744</v>
       </c>
       <c r="R7" t="n">
-        <v>73.70428898346404</v>
+        <v>71.38782625352545</v>
       </c>
       <c r="S7" t="n">
-        <v>180.3745950736087</v>
+        <v>179.4767667166956</v>
       </c>
       <c r="T7" t="n">
-        <v>236.1349782779884</v>
+        <v>235.9148534330488</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9543566406135</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -23020,34 +23020,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>405.3704241035903</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>385.8563669338771</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>380.2523127618846</v>
+        <v>367.3634792376644</v>
       </c>
       <c r="E8" t="n">
-        <v>390.0298354822868</v>
+        <v>372.6675088661858</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>379.2908034637629</v>
       </c>
       <c r="G8" t="n">
-        <v>403.9948574388665</v>
+        <v>366.3666737523534</v>
       </c>
       <c r="H8" t="n">
-        <v>301.182091927944</v>
+        <v>300.1694450707848</v>
       </c>
       <c r="I8" t="n">
-        <v>60.57778515682809</v>
+        <v>56.76574385712078</v>
       </c>
       <c r="J8" t="n">
-        <v>18.48294167697897</v>
+        <v>10.09069110280004</v>
       </c>
       <c r="K8" t="n">
-        <v>6.944471810258847</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -23062,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7330732454824584</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.2575401764107</v>
+        <v>9.579696329610414</v>
       </c>
       <c r="R8" t="n">
-        <v>46.72381062751163</v>
+        <v>40.51258854612289</v>
       </c>
       <c r="S8" t="n">
-        <v>119.2042619908454</v>
+        <v>116.9510516642238</v>
       </c>
       <c r="T8" t="n">
-        <v>217.1559246089122</v>
+        <v>216.7230808039846</v>
       </c>
       <c r="U8" t="n">
-        <v>254.4381953169066</v>
+        <v>254.4302849789525</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>108.3743344443166</v>
       </c>
       <c r="C9" t="n">
         <v>132.6551205385437</v>
@@ -23111,19 +23111,19 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>87.70330317333497</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>86.35096576077676</v>
+        <v>105.5215890835718</v>
       </c>
       <c r="H9" t="n">
-        <v>46.53386047917024</v>
+        <v>66.18988692910271</v>
       </c>
       <c r="I9" t="n">
-        <v>28.40357357326966</v>
+        <v>26.58206201150025</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>13.70815661144292</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.56209233042347</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>37.53539260028506</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>100.4885602284008</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T9" t="n">
-        <v>156.3549613391593</v>
+        <v>156.1417168646031</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3545581856602</v>
+        <v>157.8217731282328</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -23168,7 +23168,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>120.2786355777219</v>
       </c>
     </row>
     <row r="10">
@@ -23193,49 +23193,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.2880492871125</v>
+        <v>165.2436954710736</v>
       </c>
       <c r="H10" t="n">
-        <v>145.5344584306495</v>
+        <v>145.1401126844127</v>
       </c>
       <c r="I10" t="n">
-        <v>106.4663700204336</v>
+        <v>105.1325298071908</v>
       </c>
       <c r="J10" t="n">
-        <v>30.94160780737001</v>
+        <v>27.80579301341918</v>
       </c>
       <c r="K10" t="n">
-        <v>18.57647807777823</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L10" t="n">
-        <v>11.53730631291606</v>
+        <v>4.943103517458695</v>
       </c>
       <c r="M10" t="n">
-        <v>10.83153789691311</v>
+        <v>3.878875624559477</v>
       </c>
       <c r="N10" t="n">
-        <v>7.359545719332466</v>
+        <v>0.572202215851128</v>
       </c>
       <c r="O10" t="n">
-        <v>15.1076316605491</v>
+        <v>8.838421371704108</v>
       </c>
       <c r="P10" t="n">
-        <v>20.72526791008761</v>
+        <v>15.36087546843635</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.08955582939744</v>
+        <v>33.37552856090302</v>
       </c>
       <c r="R10" t="n">
-        <v>71.38782625352545</v>
+        <v>69.39351739781233</v>
       </c>
       <c r="S10" t="n">
-        <v>179.4767667166956</v>
+        <v>178.7038006680902</v>
       </c>
       <c r="T10" t="n">
-        <v>235.9148534330488</v>
+        <v>235.7253416736098</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9543566406135</v>
+        <v>279.9519373415568</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23260,25 +23260,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>330.075481977503</v>
+        <v>330.0754819775028</v>
       </c>
       <c r="D11" t="n">
-        <v>324.4714278055105</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>334.2489505259127</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>336.8531374743217</v>
+        <v>327.8001522282802</v>
       </c>
       <c r="H11" t="n">
         <v>298.6541171146935</v>
       </c>
       <c r="I11" t="n">
-        <v>51.06139321367294</v>
+        <v>51.06139321367291</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.21809620174886</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>113.5793406133823</v>
+        <v>77.90255925881263</v>
       </c>
       <c r="T11" t="n">
         <v>216.0753719669003</v>
@@ -23323,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>320.6891010503772</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23357,10 +23357,10 @@
         <v>65.42529764590962</v>
       </c>
       <c r="I12" t="n">
-        <v>23.85634635615706</v>
+        <v>23.85634635615704</v>
       </c>
       <c r="J12" t="n">
-        <v>6.228584518226661</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.33532272952761</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>98.03537458961453</v>
+        <v>98.03537458961452</v>
       </c>
       <c r="T12" t="n">
-        <v>88.92773960290137</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U12" t="n">
-        <v>119.398006414096</v>
+        <v>119.3980064140957</v>
       </c>
       <c r="V12" t="n">
-        <v>135.626548934537</v>
+        <v>135.6265489345368</v>
       </c>
       <c r="W12" t="n">
-        <v>135.152973778675</v>
+        <v>135.1529737786748</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>143.2317517339319</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>141.8373563974686</v>
       </c>
       <c r="G13" t="n">
         <v>165.1773242806354</v>
@@ -23439,10 +23439,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J13" t="n">
-        <v>7.678137123478624</v>
+        <v>23.11334984944292</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5.712245507081519</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>7.333581672173025</v>
+        <v>7.333581672172983</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.81784642339689</v>
+        <v>27.81784642339687</v>
       </c>
       <c r="R13" t="n">
-        <v>66.40922732593032</v>
+        <v>66.4092273259303</v>
       </c>
       <c r="S13" t="n">
         <v>177.547131831091</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>330.1711050654849</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>330.0754819775028</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23515,7 +23515,7 @@
         <v>298.6541171146935</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>51.06139321367291</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>15.38461185910352</v>
+        <v>31.21809620174881</v>
       </c>
       <c r="S14" t="n">
-        <v>113.5793406133823</v>
+        <v>46.68446305706388</v>
       </c>
       <c r="T14" t="n">
-        <v>140.1275091645408</v>
+        <v>140.1275091645406</v>
       </c>
       <c r="U14" t="n">
-        <v>178.470585121889</v>
+        <v>254.4184479242485</v>
       </c>
       <c r="V14" t="n">
-        <v>270.3913163145246</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23582,7 +23582,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>71.95537600921047</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
@@ -23591,13 +23591,13 @@
         <v>105.4424218008434</v>
       </c>
       <c r="H15" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.85634635615706</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.228584518226661</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.33532272952761</v>
+        <v>29.33532272952758</v>
       </c>
       <c r="S15" t="n">
-        <v>98.03537458961453</v>
+        <v>98.03537458961452</v>
       </c>
       <c r="T15" t="n">
-        <v>79.87475435686012</v>
+        <v>155.8226171592196</v>
       </c>
       <c r="U15" t="n">
-        <v>119.398006414096</v>
+        <v>195.3458692164555</v>
       </c>
       <c r="V15" t="n">
-        <v>144.6795341805783</v>
+        <v>135.6265489345368</v>
       </c>
       <c r="W15" t="n">
-        <v>135.152973778675</v>
+        <v>135.1529737786748</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -23676,10 +23676,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J16" t="n">
-        <v>23.11334984944294</v>
+        <v>23.11334984944292</v>
       </c>
       <c r="K16" t="n">
-        <v>5.712245507081562</v>
+        <v>5.712245507081519</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>7.333581672173025</v>
+        <v>7.333581672172983</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.81784642339689</v>
+        <v>27.81784642339687</v>
       </c>
       <c r="R16" t="n">
-        <v>66.40922732593032</v>
+        <v>66.4092273259303</v>
       </c>
       <c r="S16" t="n">
-        <v>156.3996735980452</v>
+        <v>177.547131831091</v>
       </c>
       <c r="T16" t="n">
         <v>235.4417556781015</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9483170948056</v>
+        <v>258.8008588617596</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23743,13 +23743,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>340.8722451234898</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>327.8001522282804</v>
+        <v>327.8001522282802</v>
       </c>
       <c r="H17" t="n">
-        <v>262.9773357601241</v>
+        <v>222.7062543123339</v>
       </c>
       <c r="I17" t="n">
         <v>51.06139321367294</v>
@@ -23785,7 +23785,7 @@
         <v>113.5793406133823</v>
       </c>
       <c r="T17" t="n">
-        <v>140.1275091645408</v>
+        <v>180.3985906123308</v>
       </c>
       <c r="U17" t="n">
         <v>254.4184479242485</v>
@@ -23794,7 +23794,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>303.9748350538234</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>72.00512475291271</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
@@ -23828,13 +23828,13 @@
         <v>105.4424218008434</v>
       </c>
       <c r="H18" t="n">
-        <v>22.3867664457484</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.85634635615705</v>
       </c>
       <c r="J18" t="n">
-        <v>6.228584518226661</v>
+        <v>6.228584518226647</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.33532272952761</v>
+        <v>29.3353227295276</v>
       </c>
       <c r="S18" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725488</v>
       </c>
       <c r="T18" t="n">
-        <v>155.8226171592196</v>
+        <v>79.87475435685997</v>
       </c>
       <c r="U18" t="n">
         <v>195.3458692164555</v>
@@ -23873,13 +23873,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>135.152973778675</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>98.61485924013661</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>81.86007723744876</v>
+        <v>81.86007723744862</v>
       </c>
     </row>
     <row r="19">
@@ -23895,7 +23895,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>136.7522399972731</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>144.0298660475896</v>
+        <v>165.1773242806354</v>
       </c>
       <c r="H19" t="n">
         <v>144.5500124639718</v>
@@ -23913,10 +23913,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J19" t="n">
-        <v>23.11334984944294</v>
+        <v>23.11334984944293</v>
       </c>
       <c r="K19" t="n">
-        <v>5.712245507081562</v>
+        <v>5.712245507081541</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>7.333581672173025</v>
+        <v>7.333581672173004</v>
       </c>
       <c r="Q19" t="n">
         <v>27.81784642339689</v>
       </c>
       <c r="R19" t="n">
-        <v>66.40922732593032</v>
+        <v>66.4092273259303</v>
       </c>
       <c r="S19" t="n">
         <v>177.547131831091</v>
@@ -23971,22 +23971,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>330.075481977503</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>324.4714278055104</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>340.8722451234897</v>
       </c>
       <c r="G20" t="n">
         <v>403.7480150306399</v>
       </c>
       <c r="H20" t="n">
-        <v>231.7592395583753</v>
+        <v>298.6541171146935</v>
       </c>
       <c r="I20" t="n">
         <v>51.06139321367294</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>31.21809620174886</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>113.5793406133823</v>
       </c>
       <c r="T20" t="n">
-        <v>140.1275091645408</v>
+        <v>216.0753719669003</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4184479242485</v>
+        <v>218.741666569679</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>270.3913163145245</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24037,7 +24037,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.9794435190313</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>72.00512475291252</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -24062,16 +24062,16 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.4424218008434</v>
+        <v>38.54754424452514</v>
       </c>
       <c r="H21" t="n">
         <v>65.42529764590962</v>
       </c>
       <c r="I21" t="n">
-        <v>23.85634635615706</v>
+        <v>23.85634635615705</v>
       </c>
       <c r="J21" t="n">
-        <v>6.228584518226661</v>
+        <v>6.228584518226647</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.33532272952761</v>
+        <v>29.3353227295276</v>
       </c>
       <c r="S21" t="n">
-        <v>98.03537458961453</v>
+        <v>22.08751178725494</v>
       </c>
       <c r="T21" t="n">
-        <v>79.87475435686012</v>
+        <v>79.87475435686002</v>
       </c>
       <c r="U21" t="n">
         <v>195.3458692164555</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>135.6265489345369</v>
       </c>
       <c r="W21" t="n">
-        <v>135.152973778675</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>98.61485924013662</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -24132,7 +24132,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>136.7522399972731</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24150,10 +24150,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J22" t="n">
-        <v>23.11334984944294</v>
+        <v>23.11334984944293</v>
       </c>
       <c r="K22" t="n">
-        <v>5.712245507081562</v>
+        <v>5.712245507081541</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,13 +24168,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>7.333581672173025</v>
+        <v>7.333581672173004</v>
       </c>
       <c r="Q22" t="n">
         <v>27.81784642339689</v>
       </c>
       <c r="R22" t="n">
-        <v>66.40922732593032</v>
+        <v>66.4092273259303</v>
       </c>
       <c r="S22" t="n">
         <v>177.547131831091</v>
@@ -24189,7 +24189,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>255.1315096131685</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24217,13 +24217,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>217.7779992048953</v>
       </c>
       <c r="G23" t="n">
-        <v>183.6944827100391</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H23" t="n">
-        <v>74.00791599383145</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I23" t="n">
         <v>31.90177044380178</v>
@@ -24259,22 +24259,22 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T23" t="n">
-        <v>20.51444875314237</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3786899365281</v>
+        <v>34.82213246243191</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>160.3661403820869</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>177.3707488472946</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>103.4062409784957</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>83.92056323231223</v>
       </c>
       <c r="G24" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>62.85721528991137</v>
@@ -24338,7 +24338,7 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T24" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>131.0653872668985</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>164.9543984734636</v>
@@ -24417,7 +24417,7 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T25" t="n">
-        <v>234.4892545020035</v>
+        <v>43.26812015802358</v>
       </c>
       <c r="U25" t="n">
         <v>279.9361575053235</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.7335520446608</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>180.8627331337739</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>190.6402558541761</v>
       </c>
       <c r="F26" t="n">
-        <v>197.2635504517532</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>403.2510401841353</v>
+        <v>204.2089314631815</v>
       </c>
       <c r="H26" t="n">
         <v>293.5644734679276</v>
@@ -24496,7 +24496,7 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T26" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.3786899365281</v>
@@ -24505,7 +24505,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>160.366140382087</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>66.38840062517156</v>
       </c>
       <c r="F27" t="n">
         <v>107.8702810193205</v>
@@ -24575,22 +24575,22 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T27" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>200.7598947515639</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -24612,10 +24612,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.9543984734636</v>
+        <v>136.7180787599983</v>
       </c>
       <c r="H28" t="n">
         <v>142.5679993783892</v>
@@ -24654,7 +24654,7 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T28" t="n">
-        <v>43.26812015802359</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U28" t="n">
         <v>279.9361575053235</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.5624103937485</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>180.8627331337739</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>216.8113975050884</v>
+        <v>190.6402558541761</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517532</v>
       </c>
       <c r="G29" t="n">
-        <v>403.2510401841353</v>
+        <v>209.8656243609514</v>
       </c>
       <c r="H29" t="n">
         <v>293.5644734679276</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>177.0804063786409</v>
       </c>
       <c r="Y29" t="n">
-        <v>177.3707488472947</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>119.2878878475953</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>42.95195471175566</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>187.8967967501105</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24861,7 +24861,7 @@
         <v>96.43258009724633</v>
       </c>
       <c r="J31" t="n">
-        <v>1.954070268515955</v>
+        <v>7.352495282391885</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T31" t="n">
-        <v>234.4892545020035</v>
+        <v>43.26812015802358</v>
       </c>
       <c r="U31" t="n">
         <v>279.9361575053235</v>
@@ -24919,13 +24919,13 @@
         <v>186.5624103937485</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>186.4667873057664</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>190.6402558541761</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -24979,10 +24979,10 @@
         <v>152.9537632937003</v>
       </c>
       <c r="W32" t="n">
-        <v>160.366140382087</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>177.0804063786409</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -24998,25 +24998,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>61.79411826844537</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -25061,10 +25061,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>71.93525632372427</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>143.1157028433843</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25089,7 +25089,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>143.1157028433844</v>
       </c>
       <c r="H34" t="n">
         <v>142.5679993783892</v>
@@ -25168,7 +25168,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>403.2510401841353</v>
+        <v>183.6944827100392</v>
       </c>
       <c r="H35" t="n">
         <v>293.5644734679276</v>
@@ -25207,22 +25207,22 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T35" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3786899365281</v>
+        <v>34.82213246243202</v>
       </c>
       <c r="V35" t="n">
-        <v>126.782621642788</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>160.366140382087</v>
+        <v>212.7823595790311</v>
       </c>
       <c r="X35" t="n">
-        <v>177.0804063786409</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>235.4436609420088</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
@@ -25247,7 +25247,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.1765168157536</v>
+        <v>32.40028532470782</v>
       </c>
       <c r="H36" t="n">
         <v>62.85721528991137</v>
@@ -25289,19 +25289,19 @@
         <v>154.7508334693185</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>203.1660574330529</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>140.3407068778987</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25326,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9543984734636</v>
+        <v>131.6329623598028</v>
       </c>
       <c r="H37" t="n">
         <v>142.5679993783892</v>
@@ -25362,7 +25362,7 @@
         <v>56.38567239618433</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T37" t="n">
         <v>234.4892545020035</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>186.5624103937484</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>180.8627331337739</v>
       </c>
       <c r="E38" t="n">
-        <v>216.8113975050884</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>325.6892184013228</v>
       </c>
       <c r="G38" t="n">
         <v>403.2510401841353</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>213.8998645763261</v>
@@ -25450,16 +25450,16 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V38" t="n">
-        <v>126.7826216427879</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>160.3661403820869</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>177.0804063786408</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>177.3707488472947</v>
       </c>
     </row>
     <row r="39">
@@ -25472,22 +25472,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>26.97054824928212</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>62.85721528991137</v>
+        <v>32.58424568572657</v>
       </c>
       <c r="I39" t="n">
         <v>14.70128436951478</v>
@@ -25523,16 +25523,16 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -25560,7 +25560,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>145.4258232780943</v>
       </c>
       <c r="G40" t="n">
         <v>164.9543984734636</v>
@@ -25599,13 +25599,13 @@
         <v>56.38567239618433</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>234.4892545020035</v>
       </c>
       <c r="U40" t="n">
-        <v>88.71502316134365</v>
+        <v>279.9361575053235</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>186.5624103937484</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>212.6379289566787</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>180.8627331337739</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>190.6402558541761</v>
       </c>
       <c r="F41" t="n">
-        <v>197.2635504517531</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>183.6944827100391</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H41" t="n">
-        <v>74.0079159938314</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I41" t="n">
         <v>31.90177044380178</v>
@@ -25690,7 +25690,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>186.5372820329992</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25715,7 +25715,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
         <v>107.8702810193205</v>
@@ -25724,7 +25724,7 @@
         <v>105.1765168157536</v>
       </c>
       <c r="H42" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>14.70128436951478</v>
@@ -25760,22 +25760,22 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T42" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3283754674364</v>
+        <v>144.8318172681841</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>183.5539429714175</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -25845,10 +25845,10 @@
         <v>279.9361575053235</v>
       </c>
       <c r="V43" t="n">
-        <v>79.92575326589329</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>85.05783350223447</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>186.5624103937481</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>186.4667873057661</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>207.033874784686</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>190.6402558541761</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517532</v>
       </c>
       <c r="G44" t="n">
-        <v>183.6944827100388</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H44" t="n">
         <v>293.5644734679276</v>
       </c>
       <c r="I44" t="n">
-        <v>31.90177044380174</v>
+        <v>31.90177044380178</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>213.8998645763261</v>
@@ -25924,10 +25924,10 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>126.782621642788</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>288.7918083316566</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -25964,7 +25964,7 @@
         <v>62.85721528991137</v>
       </c>
       <c r="I45" t="n">
-        <v>14.70128436951476</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>12.82588865527176</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S45" t="n">
-        <v>20.32007462551956</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T45" t="n">
         <v>154.7508334693185</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>85.03170854876242</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26043,10 +26043,10 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I46" t="n">
-        <v>96.43258009724632</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J46" t="n">
-        <v>7.35249528239185</v>
+        <v>7.352495282391885</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.150849970123446</v>
+        <v>9.150849970123488</v>
       </c>
       <c r="R46" t="n">
-        <v>56.3856723961843</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S46" t="n">
         <v>173.6621429915595</v>
@@ -26079,7 +26079,7 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U46" t="n">
-        <v>88.71502316134323</v>
+        <v>88.71502316134365</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>105903.0135368489</v>
+        <v>129700.6727567229</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>129700.6727567229</v>
+        <v>149630.670663566</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>182220.4513170094</v>
+        <v>182220.4513170095</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>182220.4513170094</v>
+        <v>182220.4513170095</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>182220.4513170094</v>
+        <v>182220.4513170095</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>282399.9645328133</v>
+        <v>282399.9645328132</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>282399.9645328133</v>
+        <v>282399.9645328132</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>282399.9645328133</v>
+        <v>282399.9645328132</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>282399.9645328133</v>
+        <v>282399.9645328132</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>282399.9645328134</v>
+        <v>282399.9645328133</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>31378.67067758489</v>
       </c>
       <c r="C2" t="n">
-        <v>31378.67067758488</v>
+        <v>38429.82896495497</v>
       </c>
       <c r="D2" t="n">
-        <v>38429.82896495495</v>
+        <v>44335.01352994549</v>
       </c>
       <c r="E2" t="n">
-        <v>53991.24483466944</v>
+        <v>53991.24483466948</v>
       </c>
       <c r="F2" t="n">
-        <v>53991.24483466944</v>
+        <v>53991.24483466949</v>
       </c>
       <c r="G2" t="n">
-        <v>53991.24483466944</v>
+        <v>53991.24483466947</v>
       </c>
       <c r="H2" t="n">
-        <v>53991.24483466945</v>
+        <v>53991.24483466947</v>
       </c>
       <c r="I2" t="n">
         <v>83674.06356527802</v>
@@ -26340,22 +26340,22 @@
         <v>83674.06356527799</v>
       </c>
       <c r="K2" t="n">
+        <v>83674.06356527799</v>
+      </c>
+      <c r="L2" t="n">
+        <v>83674.06356527799</v>
+      </c>
+      <c r="M2" t="n">
+        <v>83674.06356527797</v>
+      </c>
+      <c r="N2" t="n">
+        <v>83674.063565278</v>
+      </c>
+      <c r="O2" t="n">
         <v>83674.06356527802</v>
       </c>
-      <c r="L2" t="n">
-        <v>83674.063565278</v>
-      </c>
-      <c r="M2" t="n">
-        <v>83674.06356527802</v>
-      </c>
-      <c r="N2" t="n">
-        <v>83674.06356527799</v>
-      </c>
-      <c r="O2" t="n">
-        <v>83674.06356527797</v>
-      </c>
       <c r="P2" t="n">
-        <v>83674.06356527808</v>
+        <v>83674.06356527796</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>127350.017006013</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>32530.70738246582</v>
       </c>
       <c r="D3" t="n">
-        <v>30731.69797978574</v>
+        <v>26457.79560364938</v>
       </c>
       <c r="E3" t="n">
-        <v>65985.535478498</v>
+        <v>41040.86016853841</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>131245.2757302738</v>
+        <v>131245.2757302737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5190.334754265592</v>
       </c>
       <c r="L3" t="n">
-        <v>5104.080590018312</v>
+        <v>4394.248605595601</v>
       </c>
       <c r="M3" t="n">
-        <v>13900.81965466823</v>
+        <v>9574.058412629469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.891680767585058e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.54033106296797</v>
       </c>
       <c r="D4" t="n">
-        <v>12.54033106296798</v>
+        <v>27.19396146355789</v>
       </c>
       <c r="E4" t="n">
-        <v>55.80904781929523</v>
+        <v>55.80904781929539</v>
       </c>
       <c r="F4" t="n">
-        <v>55.80904781929523</v>
+        <v>55.80904781929538</v>
       </c>
       <c r="G4" t="n">
-        <v>55.80904781929523</v>
+        <v>55.8090478192953</v>
       </c>
       <c r="H4" t="n">
-        <v>55.80904781929523</v>
+        <v>55.8090478192953</v>
       </c>
       <c r="I4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="J4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="K4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="L4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="M4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="N4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="O4" t="n">
-        <v>155.650379725</v>
+        <v>155.6503797250001</v>
       </c>
       <c r="P4" t="n">
-        <v>155.6503797250003</v>
+        <v>155.6503797250001</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>36508.66363315053</v>
       </c>
       <c r="C5" t="n">
-        <v>36508.66363315053</v>
+        <v>38357.62869214527</v>
       </c>
       <c r="D5" t="n">
-        <v>38357.62869214527</v>
+        <v>39949.45546466367</v>
       </c>
       <c r="E5" t="n">
-        <v>9460.071166703492</v>
+        <v>9460.071166703508</v>
       </c>
       <c r="F5" t="n">
-        <v>9460.07116670349</v>
+        <v>9460.071166703507</v>
       </c>
       <c r="G5" t="n">
-        <v>9460.071166703492</v>
+        <v>9460.071166703501</v>
       </c>
       <c r="H5" t="n">
-        <v>9460.07116670349</v>
+        <v>9460.071166703498</v>
       </c>
       <c r="I5" t="n">
         <v>20886.45015162826</v>
@@ -26511,7 +26511,7 @@
         <v>20886.45015162826</v>
       </c>
       <c r="P5" t="n">
-        <v>20886.45015162828</v>
+        <v>20886.45015162825</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-132480.0099615786</v>
+        <v>-133912.7172001683</v>
       </c>
       <c r="C6" t="n">
-        <v>-5129.992955565645</v>
+        <v>-33859.68494001269</v>
       </c>
       <c r="D6" t="n">
-        <v>-30672.03803803903</v>
+        <v>-23451.16159559353</v>
       </c>
       <c r="E6" t="n">
-        <v>-21510.17085835135</v>
+        <v>2143.125801500385</v>
       </c>
       <c r="F6" t="n">
-        <v>44475.36462014665</v>
+        <v>43183.9859700388</v>
       </c>
       <c r="G6" t="n">
-        <v>44475.36462014665</v>
+        <v>43183.98597003879</v>
       </c>
       <c r="H6" t="n">
-        <v>44475.36462014666</v>
+        <v>43183.98597003878</v>
       </c>
       <c r="I6" t="n">
-        <v>-68613.31269634902</v>
+        <v>-69719.17372939055</v>
       </c>
       <c r="J6" t="n">
-        <v>62631.96303392474</v>
+        <v>61526.10200088315</v>
       </c>
       <c r="K6" t="n">
-        <v>62631.96303392477</v>
+        <v>56335.76724661755</v>
       </c>
       <c r="L6" t="n">
-        <v>57527.88244390643</v>
+        <v>57131.85339528755</v>
       </c>
       <c r="M6" t="n">
-        <v>48731.14337925653</v>
+        <v>51952.04358825366</v>
       </c>
       <c r="N6" t="n">
-        <v>62631.96303392472</v>
+        <v>61526.10200088315</v>
       </c>
       <c r="O6" t="n">
-        <v>62631.96303392471</v>
+        <v>61526.10200088317</v>
       </c>
       <c r="P6" t="n">
-        <v>62631.96303392461</v>
+        <v>61526.10200088312</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>132.1588822546115</v>
       </c>
       <c r="C3" t="n">
-        <v>132.1588822546115</v>
+        <v>160.7282770233651</v>
       </c>
       <c r="D3" t="n">
-        <v>160.7282770233651</v>
+        <v>185.3244840994871</v>
       </c>
       <c r="E3" t="n">
-        <v>222.1303260697263</v>
+        <v>222.1303260697265</v>
       </c>
       <c r="F3" t="n">
-        <v>222.1303260697263</v>
+        <v>222.1303260697265</v>
       </c>
       <c r="G3" t="n">
-        <v>222.1303260697263</v>
+        <v>222.1303260697264</v>
       </c>
       <c r="H3" t="n">
-        <v>222.1303260697263</v>
+        <v>222.1303260697264</v>
       </c>
       <c r="I3" t="n">
         <v>345.7528191377621</v>
@@ -26779,7 +26779,7 @@
         <v>345.7528191377621</v>
       </c>
       <c r="P3" t="n">
-        <v>345.7528191377624</v>
+        <v>345.7528191377621</v>
       </c>
     </row>
     <row r="4">
@@ -26792,22 +26792,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="D4" t="n">
-        <v>20.16697784598549</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="E4" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235972</v>
       </c>
       <c r="F4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235971</v>
       </c>
       <c r="G4" t="n">
-        <v>75.94786280235951</v>
+        <v>75.94786280235965</v>
       </c>
       <c r="H4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235959</v>
       </c>
       <c r="I4" t="n">
         <v>219.5565574740962</v>
@@ -26825,13 +26825,13 @@
         <v>219.5565574740961</v>
       </c>
       <c r="N4" t="n">
-        <v>219.5565574740962</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="O4" t="n">
         <v>219.5565574740962</v>
       </c>
       <c r="P4" t="n">
-        <v>219.5565574740965</v>
+        <v>219.5565574740961</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>132.1588822546115</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>28.56939476875351</v>
       </c>
       <c r="D3" t="n">
-        <v>28.56939476875351</v>
+        <v>24.596207076122</v>
       </c>
       <c r="E3" t="n">
-        <v>61.40204904636124</v>
+        <v>36.80584197023944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.6224930680358</v>
+        <v>123.6224930680357</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27014,37 +27014,37 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="D4" t="n">
+        <v>17.36232661610093</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38.41855834027331</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>143.6086946717366</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>20.16697784598549</v>
       </c>
-      <c r="E4" t="n">
-        <v>55.78088495637402</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>143.6086946717367</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>20.16697784598549</v>
+        <v>17.36232661610093</v>
       </c>
       <c r="M4" t="n">
-        <v>55.78088495637402</v>
+        <v>38.41855834027331</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="L4" t="n">
-        <v>20.16697784598549</v>
+        <v>17.36232661610093</v>
       </c>
       <c r="M4" t="n">
-        <v>55.78088495637402</v>
+        <v>38.41855834027331</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.531291988963262</v>
+        <v>0.6461438272296077</v>
       </c>
       <c r="H5" t="n">
-        <v>5.441094081970008</v>
+        <v>6.617320470615222</v>
       </c>
       <c r="I5" t="n">
-        <v>20.48263440450618</v>
+        <v>24.91045989926948</v>
       </c>
       <c r="J5" t="n">
-        <v>45.0927434482707</v>
+        <v>54.84064965632897</v>
       </c>
       <c r="K5" t="n">
-        <v>67.5823333410856</v>
+        <v>82.19191786295828</v>
       </c>
       <c r="L5" t="n">
-        <v>83.84186054832004</v>
+        <v>101.9663420155364</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>113.4572023030309</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>113.0792686026048</v>
       </c>
       <c r="O5" t="n">
-        <v>89.5167231054339</v>
+        <v>108.8679657701327</v>
       </c>
       <c r="P5" t="n">
-        <v>76.40045212790335</v>
+        <v>92.9162900354017</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.37355777315651</v>
+        <v>69.77626422274135</v>
       </c>
       <c r="R5" t="n">
-        <v>33.37377040171354</v>
+        <v>40.58833218721188</v>
       </c>
       <c r="S5" t="n">
-        <v>12.10681619850035</v>
+        <v>14.7240024629947</v>
       </c>
       <c r="T5" t="n">
-        <v>2.325730681686681</v>
+        <v>2.828494603697609</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.05169150617836861</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.3457174260502569</v>
       </c>
       <c r="H6" t="n">
-        <v>2.745413761553346</v>
+        <v>3.338902509485377</v>
       </c>
       <c r="I6" t="n">
-        <v>9.787237978289628</v>
+        <v>11.90299032673034</v>
       </c>
       <c r="J6" t="n">
-        <v>26.85692908157158</v>
+        <v>32.66271523924818</v>
       </c>
       <c r="K6" t="n">
-        <v>45.90276950913239</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>75.06465428341215</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>77.73126158440292</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>73.36037123973549</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>66.56324650389816</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>66.01686533059687</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.2863406522473</v>
+        <v>44.13052617441525</v>
       </c>
       <c r="R6" t="n">
-        <v>17.64944469053096</v>
+        <v>21.46480650512035</v>
       </c>
       <c r="S6" t="n">
-        <v>5.280121380644146</v>
+        <v>6.421549558433496</v>
       </c>
       <c r="T6" t="n">
-        <v>1.14579257350932</v>
+        <v>1.39348383570257</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.02274456750330639</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2898378765995107</v>
       </c>
       <c r="H7" t="n">
-        <v>2.118875194180494</v>
+        <v>2.576922211948379</v>
       </c>
       <c r="I7" t="n">
-        <v>7.166911188495984</v>
+        <v>8.71621541628347</v>
       </c>
       <c r="J7" t="n">
-        <v>16.84917421793629</v>
+        <v>20.49153787558541</v>
       </c>
       <c r="K7" t="n">
-        <v>27.68836910186779</v>
+        <v>33.6738914812886</v>
       </c>
       <c r="L7" t="n">
-        <v>35.43157967855602</v>
+        <v>43.09098758098545</v>
       </c>
       <c r="M7" t="n">
-        <v>37.35763289698797</v>
+        <v>45.43340460186693</v>
       </c>
       <c r="N7" t="n">
-        <v>36.46935188511274</v>
+        <v>44.35309978908698</v>
       </c>
       <c r="O7" t="n">
-        <v>33.68534920155247</v>
+        <v>40.96726641244722</v>
       </c>
       <c r="P7" t="n">
-        <v>28.82363556582542</v>
+        <v>35.05457372981717</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.95599122044634</v>
+        <v>24.26996983052812</v>
       </c>
       <c r="R7" t="n">
-        <v>10.7157021578903</v>
+        <v>13.03216488782891</v>
       </c>
       <c r="S7" t="n">
-        <v>4.153255365280167</v>
+        <v>5.051083722193289</v>
       </c>
       <c r="T7" t="n">
-        <v>1.018273355076515</v>
+        <v>1.238398200016091</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01580933872360969</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6461438272296077</v>
+        <v>0.7450230516562287</v>
       </c>
       <c r="H8" t="n">
-        <v>6.617320470615222</v>
+        <v>7.629967327774355</v>
       </c>
       <c r="I8" t="n">
-        <v>24.91045989926948</v>
+        <v>28.72250119897679</v>
       </c>
       <c r="J8" t="n">
-        <v>54.84064965632897</v>
+        <v>63.23290023050791</v>
       </c>
       <c r="K8" t="n">
-        <v>82.19191786295828</v>
+        <v>94.76972600711609</v>
       </c>
       <c r="L8" t="n">
-        <v>101.9663420155364</v>
+        <v>117.5702252242404</v>
       </c>
       <c r="M8" t="n">
-        <v>113.4572023030309</v>
+        <v>130.8195289191319</v>
       </c>
       <c r="N8" t="n">
-        <v>113.0792686026048</v>
+        <v>130.4415952187057</v>
       </c>
       <c r="O8" t="n">
-        <v>108.8679657701327</v>
+        <v>125.5280026947435</v>
       </c>
       <c r="P8" t="n">
-        <v>92.9162900354017</v>
+        <v>107.1352461069803</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.77626422274135</v>
+        <v>80.45410806954163</v>
       </c>
       <c r="R8" t="n">
-        <v>40.58833218721188</v>
+        <v>46.79955426860062</v>
       </c>
       <c r="S8" t="n">
-        <v>14.7240024629947</v>
+        <v>16.97721278961633</v>
       </c>
       <c r="T8" t="n">
-        <v>2.828494603697609</v>
+        <v>3.261338408625143</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05169150617836861</v>
+        <v>0.05960184413249829</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3457174260502569</v>
+        <v>0.3986224752328589</v>
       </c>
       <c r="H9" t="n">
-        <v>3.338902509485377</v>
+        <v>3.849853905538402</v>
       </c>
       <c r="I9" t="n">
-        <v>11.90299032673034</v>
+        <v>13.72450188849975</v>
       </c>
       <c r="J9" t="n">
-        <v>32.66271523924818</v>
+        <v>37.66108218855709</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>64.36878802915864</v>
       </c>
       <c r="L9" t="n">
-        <v>75.06465428341215</v>
+        <v>86.55177910702932</v>
       </c>
       <c r="M9" t="n">
-        <v>77.73126158440292</v>
+        <v>95.09358820050383</v>
       </c>
       <c r="N9" t="n">
-        <v>62.00516089764815</v>
+        <v>88.19376245126712</v>
       </c>
       <c r="O9" t="n">
-        <v>77.91845684598547</v>
+        <v>94.84242725419692</v>
       </c>
       <c r="P9" t="n">
-        <v>66.01686533059687</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13052617441525</v>
+        <v>50.88380929463653</v>
       </c>
       <c r="R9" t="n">
-        <v>21.46480650512035</v>
+        <v>24.74956034822962</v>
       </c>
       <c r="S9" t="n">
-        <v>6.421549558433496</v>
+        <v>7.404237643031388</v>
       </c>
       <c r="T9" t="n">
-        <v>1.39348383570257</v>
+        <v>1.60672831025876</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02274456750330639</v>
+        <v>0.02622516284426705</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2898378765995107</v>
+        <v>0.3341916926384192</v>
       </c>
       <c r="H10" t="n">
-        <v>2.576922211948379</v>
+        <v>2.971267958185221</v>
       </c>
       <c r="I10" t="n">
-        <v>8.71621541628347</v>
+        <v>10.05005562952628</v>
       </c>
       <c r="J10" t="n">
-        <v>20.49153787558541</v>
+        <v>23.62735266953624</v>
       </c>
       <c r="K10" t="n">
-        <v>33.6738914812886</v>
+        <v>38.82699847199088</v>
       </c>
       <c r="L10" t="n">
-        <v>43.09098758098545</v>
+        <v>49.68519037644281</v>
       </c>
       <c r="M10" t="n">
-        <v>45.43340460186693</v>
+        <v>52.38606687422057</v>
       </c>
       <c r="N10" t="n">
-        <v>44.35309978908698</v>
+        <v>51.14044329256831</v>
       </c>
       <c r="O10" t="n">
-        <v>40.96726641244722</v>
+        <v>47.23647670129222</v>
       </c>
       <c r="P10" t="n">
-        <v>35.05457372981717</v>
+        <v>40.41896617146843</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.26996983052812</v>
+        <v>27.98399709902255</v>
       </c>
       <c r="R10" t="n">
-        <v>13.03216488782891</v>
+        <v>15.02647374354201</v>
       </c>
       <c r="S10" t="n">
-        <v>5.051083722193289</v>
+        <v>5.824049770798632</v>
       </c>
       <c r="T10" t="n">
-        <v>1.238398200016091</v>
+        <v>1.427909959455064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01580933872360969</v>
+        <v>0.01822863778027744</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8929862354561854</v>
+        <v>0.8929862354561863</v>
       </c>
       <c r="H11" t="n">
-        <v>9.145295283865661</v>
+        <v>9.14529528386567</v>
       </c>
       <c r="I11" t="n">
-        <v>34.42685184242463</v>
+        <v>34.42685184242465</v>
       </c>
       <c r="J11" t="n">
-        <v>75.79109050154949</v>
+        <v>75.79109050154956</v>
       </c>
       <c r="K11" t="n">
-        <v>113.5911978484098</v>
+        <v>113.5911978484099</v>
       </c>
       <c r="L11" t="n">
-        <v>140.9199253517521</v>
+        <v>140.9199253517522</v>
       </c>
       <c r="M11" t="n">
-        <v>156.800569316546</v>
+        <v>156.8005693165462</v>
       </c>
       <c r="N11" t="n">
-        <v>159.3377664580359</v>
+        <v>159.3377664580361</v>
       </c>
       <c r="O11" t="n">
-        <v>150.4581345792185</v>
+        <v>150.4581345792186</v>
       </c>
       <c r="P11" t="n">
-        <v>128.4125368913939</v>
+        <v>128.412536891394</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.43246733411921</v>
+        <v>96.43246733411929</v>
       </c>
       <c r="R11" t="n">
-        <v>56.09404661297466</v>
+        <v>56.09404661297471</v>
       </c>
       <c r="S11" t="n">
-        <v>20.34892384045785</v>
+        <v>20.34892384045786</v>
       </c>
       <c r="T11" t="n">
-        <v>3.909047245709454</v>
+        <v>3.909047245709457</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07143889883649482</v>
+        <v>0.07143889883649489</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4777897579612981</v>
+        <v>0.4777897579612985</v>
       </c>
       <c r="H12" t="n">
-        <v>4.614443188731485</v>
+        <v>4.614443188731489</v>
       </c>
       <c r="I12" t="n">
-        <v>16.45021754384294</v>
+        <v>16.45021754384296</v>
       </c>
       <c r="J12" t="n">
-        <v>45.14065428177335</v>
+        <v>45.14065428177339</v>
       </c>
       <c r="K12" t="n">
-        <v>77.1525680651803</v>
+        <v>77.15256806518039</v>
       </c>
       <c r="L12" t="n">
-        <v>103.7411489819038</v>
+        <v>103.7411489819039</v>
       </c>
       <c r="M12" t="n">
-        <v>121.0610277080008</v>
+        <v>121.0610277080009</v>
       </c>
       <c r="N12" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831011</v>
       </c>
       <c r="O12" t="n">
-        <v>113.6783377198532</v>
+        <v>113.6783377198533</v>
       </c>
       <c r="P12" t="n">
-        <v>91.23688807946928</v>
+        <v>91.23688807946937</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.98944348993693</v>
+        <v>60.9894434899372</v>
       </c>
       <c r="R12" t="n">
-        <v>29.6648763758778</v>
+        <v>29.66487637587782</v>
       </c>
       <c r="S12" t="n">
-        <v>8.874735197219719</v>
+        <v>8.874735197219728</v>
       </c>
       <c r="T12" t="n">
-        <v>1.925828015642249</v>
+        <v>1.925828015642251</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03143353670798015</v>
+        <v>0.03143353670798018</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4005628830765556</v>
+        <v>0.4005628830765559</v>
       </c>
       <c r="H13" t="n">
-        <v>3.561368178626106</v>
+        <v>3.561368178626109</v>
       </c>
       <c r="I13" t="n">
-        <v>12.0460183383386</v>
+        <v>12.04601833833861</v>
       </c>
       <c r="J13" t="n">
-        <v>28.31979583351248</v>
+        <v>28.3197958335125</v>
       </c>
       <c r="K13" t="n">
-        <v>46.53812405198526</v>
+        <v>46.53812405198531</v>
       </c>
       <c r="L13" t="n">
-        <v>59.5527762712181</v>
+        <v>59.55277627121815</v>
       </c>
       <c r="M13" t="n">
-        <v>62.7900526626277</v>
+        <v>62.79005266262775</v>
       </c>
       <c r="N13" t="n">
-        <v>61.29704555297877</v>
+        <v>61.29704555297882</v>
       </c>
       <c r="O13" t="n">
-        <v>56.61774278249353</v>
+        <v>56.61774278249358</v>
       </c>
       <c r="P13" t="n">
-        <v>48.44625996773176</v>
+        <v>48.4462599677318</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.54167923652867</v>
+        <v>33.5416792365287</v>
       </c>
       <c r="R13" t="n">
-        <v>18.01076381542403</v>
+        <v>18.01076381542405</v>
       </c>
       <c r="S13" t="n">
-        <v>6.980718607797789</v>
+        <v>6.980718607797795</v>
       </c>
       <c r="T13" t="n">
-        <v>1.711495954963464</v>
+        <v>1.711495954963466</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02184888453144851</v>
+        <v>0.02184888453144853</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8929862354561854</v>
+        <v>0.8929862354561863</v>
       </c>
       <c r="H14" t="n">
-        <v>9.145295283865661</v>
+        <v>9.14529528386567</v>
       </c>
       <c r="I14" t="n">
-        <v>34.42685184242463</v>
+        <v>34.42685184242465</v>
       </c>
       <c r="J14" t="n">
-        <v>75.79109050154949</v>
+        <v>75.79109050154956</v>
       </c>
       <c r="K14" t="n">
-        <v>113.5911978484098</v>
+        <v>113.5911978484099</v>
       </c>
       <c r="L14" t="n">
-        <v>140.9199253517521</v>
+        <v>140.9199253517522</v>
       </c>
       <c r="M14" t="n">
-        <v>156.800569316546</v>
+        <v>156.8005693165462</v>
       </c>
       <c r="N14" t="n">
-        <v>159.3377664580359</v>
+        <v>159.3377664580361</v>
       </c>
       <c r="O14" t="n">
-        <v>150.4581345792185</v>
+        <v>150.4581345792186</v>
       </c>
       <c r="P14" t="n">
-        <v>128.4125368913939</v>
+        <v>128.412536891394</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.43246733411921</v>
+        <v>96.43246733411929</v>
       </c>
       <c r="R14" t="n">
-        <v>56.09404661297466</v>
+        <v>56.09404661297471</v>
       </c>
       <c r="S14" t="n">
-        <v>20.34892384045785</v>
+        <v>20.34892384045786</v>
       </c>
       <c r="T14" t="n">
-        <v>3.909047245709454</v>
+        <v>3.909047245709457</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07143889883649482</v>
+        <v>0.07143889883649489</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4777897579612981</v>
+        <v>0.4777897579612985</v>
       </c>
       <c r="H15" t="n">
-        <v>4.614443188731485</v>
+        <v>4.614443188731489</v>
       </c>
       <c r="I15" t="n">
-        <v>16.45021754384294</v>
+        <v>16.45021754384296</v>
       </c>
       <c r="J15" t="n">
-        <v>45.14065428177335</v>
+        <v>45.14065428177339</v>
       </c>
       <c r="K15" t="n">
-        <v>77.15256806518032</v>
+        <v>77.15256806518039</v>
       </c>
       <c r="L15" t="n">
-        <v>103.7411489819038</v>
+        <v>103.7411489819039</v>
       </c>
       <c r="M15" t="n">
-        <v>121.0610277080008</v>
+        <v>121.0610277080009</v>
       </c>
       <c r="N15" t="n">
-        <v>124.265152883101</v>
+        <v>124.2651528831011</v>
       </c>
       <c r="O15" t="n">
-        <v>113.6783377198532</v>
+        <v>113.6783377198533</v>
       </c>
       <c r="P15" t="n">
-        <v>91.23688807946928</v>
+        <v>91.23688807946937</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.98944348993693</v>
+        <v>60.98944348993699</v>
       </c>
       <c r="R15" t="n">
-        <v>29.6648763758778</v>
+        <v>29.66487637587782</v>
       </c>
       <c r="S15" t="n">
-        <v>8.874735197219719</v>
+        <v>8.874735197219728</v>
       </c>
       <c r="T15" t="n">
-        <v>1.925828015642249</v>
+        <v>1.925828015642251</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03143353670798015</v>
+        <v>0.03143353670798018</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4005628830765556</v>
+        <v>0.4005628830765559</v>
       </c>
       <c r="H16" t="n">
-        <v>3.561368178626106</v>
+        <v>3.561368178626109</v>
       </c>
       <c r="I16" t="n">
-        <v>12.0460183383386</v>
+        <v>12.04601833833861</v>
       </c>
       <c r="J16" t="n">
-        <v>28.31979583351248</v>
+        <v>28.3197958335125</v>
       </c>
       <c r="K16" t="n">
-        <v>46.53812405198526</v>
+        <v>46.53812405198531</v>
       </c>
       <c r="L16" t="n">
-        <v>59.5527762712181</v>
+        <v>59.55277627121815</v>
       </c>
       <c r="M16" t="n">
-        <v>62.7900526626277</v>
+        <v>62.79005266262775</v>
       </c>
       <c r="N16" t="n">
-        <v>61.29704555297877</v>
+        <v>61.29704555297882</v>
       </c>
       <c r="O16" t="n">
-        <v>56.61774278249353</v>
+        <v>56.61774278249358</v>
       </c>
       <c r="P16" t="n">
-        <v>48.44625996773176</v>
+        <v>48.4462599677318</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.54167923652867</v>
+        <v>33.5416792365287</v>
       </c>
       <c r="R16" t="n">
-        <v>18.01076381542403</v>
+        <v>18.01076381542405</v>
       </c>
       <c r="S16" t="n">
-        <v>6.980718607797789</v>
+        <v>6.980718607797795</v>
       </c>
       <c r="T16" t="n">
-        <v>1.711495954963464</v>
+        <v>1.711495954963466</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02184888453144851</v>
+        <v>0.02184888453144853</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8929862354561854</v>
+        <v>0.8929862354561857</v>
       </c>
       <c r="H17" t="n">
-        <v>9.145295283865661</v>
+        <v>9.145295283865664</v>
       </c>
       <c r="I17" t="n">
         <v>34.42685184242463</v>
       </c>
       <c r="J17" t="n">
-        <v>75.79109050154949</v>
+        <v>75.79109050154952</v>
       </c>
       <c r="K17" t="n">
-        <v>113.5911978484098</v>
+        <v>113.5911978484099</v>
       </c>
       <c r="L17" t="n">
-        <v>140.9199253517521</v>
+        <v>140.9199253517522</v>
       </c>
       <c r="M17" t="n">
-        <v>156.800569316546</v>
+        <v>156.8005693165461</v>
       </c>
       <c r="N17" t="n">
-        <v>159.3377664580359</v>
+        <v>159.337766458036</v>
       </c>
       <c r="O17" t="n">
-        <v>150.4581345792185</v>
+        <v>150.4581345792186</v>
       </c>
       <c r="P17" t="n">
         <v>128.4125368913939</v>
       </c>
       <c r="Q17" t="n">
-        <v>96.43246733411921</v>
+        <v>96.43246733411925</v>
       </c>
       <c r="R17" t="n">
-        <v>56.09404661297466</v>
+        <v>56.09404661297468</v>
       </c>
       <c r="S17" t="n">
         <v>20.34892384045785</v>
       </c>
       <c r="T17" t="n">
-        <v>3.909047245709454</v>
+        <v>3.909047245709455</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07143889883649482</v>
+        <v>0.07143889883649485</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4777897579612981</v>
+        <v>0.4777897579612982</v>
       </c>
       <c r="H18" t="n">
-        <v>4.614443188731485</v>
+        <v>4.614443188731487</v>
       </c>
       <c r="I18" t="n">
-        <v>16.45021754384294</v>
+        <v>16.45021754384295</v>
       </c>
       <c r="J18" t="n">
-        <v>45.14065428177335</v>
+        <v>45.14065428177337</v>
       </c>
       <c r="K18" t="n">
-        <v>77.15256806518032</v>
+        <v>77.15256806518035</v>
       </c>
       <c r="L18" t="n">
         <v>103.7411489819038</v>
       </c>
       <c r="M18" t="n">
-        <v>121.0610277080008</v>
+        <v>121.0610277080009</v>
       </c>
       <c r="N18" t="n">
         <v>124.265152883101</v>
       </c>
       <c r="O18" t="n">
-        <v>113.6783377198532</v>
+        <v>113.6783377198533</v>
       </c>
       <c r="P18" t="n">
-        <v>91.23688807946928</v>
+        <v>91.23688807946932</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.98944348993693</v>
+        <v>60.98944348993695</v>
       </c>
       <c r="R18" t="n">
-        <v>29.6648763758778</v>
+        <v>29.66487637587781</v>
       </c>
       <c r="S18" t="n">
-        <v>8.874735197219719</v>
+        <v>8.874735197219723</v>
       </c>
       <c r="T18" t="n">
-        <v>1.925828015642249</v>
+        <v>1.92582801564225</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03143353670798015</v>
+        <v>0.03143353670798016</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4005628830765556</v>
+        <v>0.4005628830765557</v>
       </c>
       <c r="H19" t="n">
-        <v>3.561368178626106</v>
+        <v>3.561368178626107</v>
       </c>
       <c r="I19" t="n">
-        <v>12.0460183383386</v>
+        <v>12.04601833833861</v>
       </c>
       <c r="J19" t="n">
-        <v>28.31979583351248</v>
+        <v>28.31979583351249</v>
       </c>
       <c r="K19" t="n">
-        <v>46.53812405198526</v>
+        <v>46.53812405198529</v>
       </c>
       <c r="L19" t="n">
-        <v>59.5527762712181</v>
+        <v>59.55277627121812</v>
       </c>
       <c r="M19" t="n">
-        <v>62.7900526626277</v>
+        <v>62.79005266262772</v>
       </c>
       <c r="N19" t="n">
-        <v>61.29704555297877</v>
+        <v>61.29704555297879</v>
       </c>
       <c r="O19" t="n">
-        <v>56.61774278249353</v>
+        <v>56.61774278249355</v>
       </c>
       <c r="P19" t="n">
-        <v>48.44625996773176</v>
+        <v>48.44625996773178</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.54167923652867</v>
+        <v>33.54167923652868</v>
       </c>
       <c r="R19" t="n">
-        <v>18.01076381542403</v>
+        <v>18.01076381542404</v>
       </c>
       <c r="S19" t="n">
-        <v>6.980718607797789</v>
+        <v>6.980718607797791</v>
       </c>
       <c r="T19" t="n">
-        <v>1.711495954963464</v>
+        <v>1.711495954963465</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02184888453144851</v>
+        <v>0.02184888453144852</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8929862354561854</v>
+        <v>0.8929862354561857</v>
       </c>
       <c r="H20" t="n">
-        <v>9.145295283865661</v>
+        <v>9.145295283865664</v>
       </c>
       <c r="I20" t="n">
         <v>34.42685184242463</v>
       </c>
       <c r="J20" t="n">
-        <v>75.79109050154949</v>
+        <v>75.79109050154952</v>
       </c>
       <c r="K20" t="n">
-        <v>113.5911978484098</v>
+        <v>113.5911978484099</v>
       </c>
       <c r="L20" t="n">
-        <v>140.9199253517521</v>
+        <v>140.9199253517522</v>
       </c>
       <c r="M20" t="n">
-        <v>156.800569316546</v>
+        <v>156.8005693165461</v>
       </c>
       <c r="N20" t="n">
-        <v>159.3377664580359</v>
+        <v>159.337766458036</v>
       </c>
       <c r="O20" t="n">
-        <v>150.4581345792185</v>
+        <v>150.4581345792186</v>
       </c>
       <c r="P20" t="n">
         <v>128.4125368913939</v>
       </c>
       <c r="Q20" t="n">
-        <v>96.43246733411921</v>
+        <v>96.43246733411925</v>
       </c>
       <c r="R20" t="n">
-        <v>56.09404661297466</v>
+        <v>56.09404661297468</v>
       </c>
       <c r="S20" t="n">
         <v>20.34892384045785</v>
       </c>
       <c r="T20" t="n">
-        <v>3.909047245709454</v>
+        <v>3.909047245709455</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07143889883649482</v>
+        <v>0.07143889883649485</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4777897579612981</v>
+        <v>0.4777897579612982</v>
       </c>
       <c r="H21" t="n">
-        <v>4.614443188731485</v>
+        <v>4.614443188731487</v>
       </c>
       <c r="I21" t="n">
-        <v>16.45021754384294</v>
+        <v>16.45021754384295</v>
       </c>
       <c r="J21" t="n">
-        <v>45.14065428177335</v>
+        <v>45.14065428177337</v>
       </c>
       <c r="K21" t="n">
-        <v>77.15256806518032</v>
+        <v>77.15256806518035</v>
       </c>
       <c r="L21" t="n">
         <v>103.7411489819038</v>
       </c>
       <c r="M21" t="n">
-        <v>121.0610277080008</v>
+        <v>121.0610277080009</v>
       </c>
       <c r="N21" t="n">
         <v>124.265152883101</v>
       </c>
       <c r="O21" t="n">
-        <v>113.6783377198532</v>
+        <v>113.6783377198533</v>
       </c>
       <c r="P21" t="n">
-        <v>91.23688807946928</v>
+        <v>91.23688807946932</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.98944348993693</v>
+        <v>60.98944348993695</v>
       </c>
       <c r="R21" t="n">
-        <v>29.6648763758778</v>
+        <v>29.66487637587781</v>
       </c>
       <c r="S21" t="n">
-        <v>8.874735197219719</v>
+        <v>8.874735197219723</v>
       </c>
       <c r="T21" t="n">
-        <v>1.925828015642249</v>
+        <v>1.92582801564225</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03143353670798015</v>
+        <v>0.03143353670798016</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4005628830765556</v>
+        <v>0.4005628830765557</v>
       </c>
       <c r="H22" t="n">
-        <v>3.561368178626106</v>
+        <v>3.561368178626107</v>
       </c>
       <c r="I22" t="n">
-        <v>12.0460183383386</v>
+        <v>12.04601833833861</v>
       </c>
       <c r="J22" t="n">
-        <v>28.31979583351248</v>
+        <v>28.31979583351249</v>
       </c>
       <c r="K22" t="n">
-        <v>46.53812405198526</v>
+        <v>46.53812405198529</v>
       </c>
       <c r="L22" t="n">
-        <v>59.5527762712181</v>
+        <v>59.55277627121812</v>
       </c>
       <c r="M22" t="n">
-        <v>62.7900526626277</v>
+        <v>62.79005266262772</v>
       </c>
       <c r="N22" t="n">
-        <v>61.29704555297877</v>
+        <v>61.29704555297879</v>
       </c>
       <c r="O22" t="n">
-        <v>56.61774278249353</v>
+        <v>56.61774278249355</v>
       </c>
       <c r="P22" t="n">
-        <v>48.44625996773176</v>
+        <v>48.44625996773178</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.54167923652867</v>
+        <v>33.54167923652868</v>
       </c>
       <c r="R22" t="n">
-        <v>18.01076381542403</v>
+        <v>18.01076381542404</v>
       </c>
       <c r="S22" t="n">
-        <v>6.980718607797789</v>
+        <v>6.980718607797791</v>
       </c>
       <c r="T22" t="n">
-        <v>1.711495954963464</v>
+        <v>1.711495954963465</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02184888453144851</v>
+        <v>0.02184888453144852</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.389961081960853</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H44" t="n">
-        <v>14.23493893063159</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I44" t="n">
-        <v>53.58647461229583</v>
+        <v>53.58647461229579</v>
       </c>
       <c r="J44" t="n">
-        <v>117.971209380075</v>
+        <v>117.9712093800749</v>
       </c>
       <c r="K44" t="n">
-        <v>176.808261979478</v>
+        <v>176.8082619794778</v>
       </c>
       <c r="L44" t="n">
-        <v>219.3462834415375</v>
+        <v>219.3462834415373</v>
       </c>
       <c r="M44" t="n">
-        <v>244.0650038328588</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N44" t="n">
-        <v>248.0142307569801</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O44" t="n">
-        <v>234.1928052482318</v>
+        <v>234.1928052482316</v>
       </c>
       <c r="P44" t="n">
-        <v>199.8781410373232</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.1001597896002</v>
+        <v>150.1001597896</v>
       </c>
       <c r="R44" t="n">
-        <v>87.3121428147235</v>
+        <v>87.31214281472343</v>
       </c>
       <c r="S44" t="n">
-        <v>31.67373815518297</v>
+        <v>31.67373815518294</v>
       </c>
       <c r="T44" t="n">
-        <v>6.084554636283636</v>
+        <v>6.084554636283631</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1111968865568682</v>
+        <v>0.1111968865568681</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7436947430510361</v>
+        <v>0.7436947430510356</v>
       </c>
       <c r="H45" t="n">
-        <v>7.182525544729745</v>
+        <v>7.182525544729739</v>
       </c>
       <c r="I45" t="n">
-        <v>25.60527953048524</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J45" t="n">
-        <v>70.26284412308058</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K45" t="n">
-        <v>120.0903919075</v>
+        <v>120.0903919074999</v>
       </c>
       <c r="L45" t="n">
-        <v>161.4763519944805</v>
+        <v>161.4763519944803</v>
       </c>
       <c r="M45" t="n">
-        <v>188.4352864300805</v>
+        <v>188.4352864300803</v>
       </c>
       <c r="N45" t="n">
-        <v>193.4226077551903</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O45" t="n">
-        <v>176.9438979223226</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P45" t="n">
-        <v>142.0130777322632</v>
+        <v>142.0130777322631</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.93198158665507</v>
+        <v>94.931981586655</v>
       </c>
       <c r="R45" t="n">
-        <v>46.17431045013365</v>
+        <v>46.17431045013361</v>
       </c>
       <c r="S45" t="n">
-        <v>13.81380367026814</v>
+        <v>13.81380367026813</v>
       </c>
       <c r="T45" t="n">
-        <v>2.997611705543429</v>
+        <v>2.997611705543427</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04892728572704187</v>
+        <v>0.04892728572704183</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6234886902484239</v>
+        <v>0.6234886902484235</v>
       </c>
       <c r="H46" t="n">
-        <v>5.543381264208719</v>
+        <v>5.543381264208714</v>
       </c>
       <c r="I46" t="n">
-        <v>18.75000533947079</v>
+        <v>18.75000533947077</v>
       </c>
       <c r="J46" t="n">
-        <v>44.08065040056357</v>
+        <v>44.08065040056353</v>
       </c>
       <c r="K46" t="n">
-        <v>72.43804964886233</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L46" t="n">
-        <v>92.69576400293388</v>
+        <v>92.6957640029338</v>
       </c>
       <c r="M46" t="n">
-        <v>97.73468623594157</v>
+        <v>97.73468623594148</v>
       </c>
       <c r="N46" t="n">
-        <v>95.4107738450157</v>
+        <v>95.41077384501563</v>
       </c>
       <c r="O46" t="n">
-        <v>88.12729232711362</v>
+        <v>88.12729232711355</v>
       </c>
       <c r="P46" t="n">
-        <v>75.40812304604572</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.20867568980212</v>
+        <v>52.20867568980208</v>
       </c>
       <c r="R46" t="n">
-        <v>28.03431874517004</v>
+        <v>28.03431874517001</v>
       </c>
       <c r="S46" t="n">
-        <v>10.86570744732935</v>
+        <v>10.86570744732934</v>
       </c>
       <c r="T46" t="n">
-        <v>2.663997131061447</v>
+        <v>2.663997131061445</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03400847401355044</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34941,16 +34941,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.48094395269159</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>18.9501304725631</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>8.811767503898162</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>11.75723032779312</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>5.633336333898967</v>
       </c>
       <c r="L8" t="n">
-        <v>6.48094395269159</v>
+        <v>22.08482716139561</v>
       </c>
       <c r="M8" t="n">
-        <v>20.16697784598549</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N8" t="n">
-        <v>20.16697784598549</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="O8" t="n">
-        <v>15.67819014434953</v>
+        <v>32.33822706896039</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.48588282609619</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>8.543005244543245</v>
       </c>
       <c r="L9" t="n">
-        <v>18.9501304725631</v>
+        <v>30.43725529618027</v>
       </c>
       <c r="M9" t="n">
-        <v>20.16697784598549</v>
+        <v>37.52930446208642</v>
       </c>
       <c r="N9" t="n">
-        <v>8.811767503898162</v>
+        <v>35.00036905751713</v>
       </c>
       <c r="O9" t="n">
-        <v>20.16697784598549</v>
+        <v>37.09094825419692</v>
       </c>
       <c r="P9" t="n">
-        <v>11.75723032779312</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.467499168241545</v>
+        <v>2.467499168241616</v>
       </c>
       <c r="K11" t="n">
-        <v>24.45480817519271</v>
+        <v>24.45480817519281</v>
       </c>
       <c r="L11" t="n">
-        <v>45.43452728890729</v>
+        <v>45.4345272889074</v>
       </c>
       <c r="M11" t="n">
-        <v>63.51034485950059</v>
+        <v>63.51034485950073</v>
       </c>
       <c r="N11" t="n">
-        <v>66.4254757014166</v>
+        <v>66.42547570141674</v>
       </c>
       <c r="O11" t="n">
-        <v>57.26835895343534</v>
+        <v>57.26835895343548</v>
       </c>
       <c r="P11" t="n">
-        <v>34.76317361050971</v>
+        <v>34.76317361050982</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.398662934967163</v>
+        <v>6.398662934967248</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>21.32678528056491</v>
+        <v>21.326785280565</v>
       </c>
       <c r="L12" t="n">
-        <v>47.62662517105474</v>
+        <v>47.62662517105483</v>
       </c>
       <c r="M12" t="n">
-        <v>63.49674396958338</v>
+        <v>63.4967439695835</v>
       </c>
       <c r="N12" t="n">
-        <v>71.07175948935097</v>
+        <v>71.07175948935105</v>
       </c>
       <c r="O12" t="n">
-        <v>55.92685871985324</v>
+        <v>55.92685871985334</v>
       </c>
       <c r="P12" t="n">
-        <v>36.97725307666553</v>
+        <v>36.97725307666562</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.296824985098212</v>
+        <v>4.29682498509848</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4.924482377316593</v>
+        <v>4.924482377316643</v>
       </c>
       <c r="M13" t="n">
-        <v>6.525110163847657</v>
+        <v>6.525110163847707</v>
       </c>
       <c r="N13" t="n">
-        <v>9.584400044559324</v>
+        <v>9.584400044559381</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5428447094972029</v>
+        <v>0.5428447094972526</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.467499168241545</v>
+        <v>2.467499168241616</v>
       </c>
       <c r="K14" t="n">
-        <v>24.45480817519271</v>
+        <v>24.45480817519281</v>
       </c>
       <c r="L14" t="n">
-        <v>45.43452728890729</v>
+        <v>45.4345272889074</v>
       </c>
       <c r="M14" t="n">
-        <v>63.51034485950059</v>
+        <v>63.51034485950073</v>
       </c>
       <c r="N14" t="n">
-        <v>66.4254757014166</v>
+        <v>66.42547570141674</v>
       </c>
       <c r="O14" t="n">
-        <v>57.26835895343534</v>
+        <v>57.26835895343548</v>
       </c>
       <c r="P14" t="n">
-        <v>34.76317361050971</v>
+        <v>34.76317361050982</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.398662934967163</v>
+        <v>6.398662934967248</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>21.32678528056493</v>
+        <v>21.326785280565</v>
       </c>
       <c r="L15" t="n">
-        <v>47.62662517105474</v>
+        <v>47.62662517105483</v>
       </c>
       <c r="M15" t="n">
-        <v>63.49674396958338</v>
+        <v>63.4967439695835</v>
       </c>
       <c r="N15" t="n">
-        <v>71.07175948935097</v>
+        <v>71.07175948935105</v>
       </c>
       <c r="O15" t="n">
-        <v>55.92685871985324</v>
+        <v>55.92685871985334</v>
       </c>
       <c r="P15" t="n">
-        <v>36.97725307666553</v>
+        <v>36.97725307666562</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.296824985098212</v>
+        <v>4.296824985098269</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4.924482377316593</v>
+        <v>4.924482377316643</v>
       </c>
       <c r="M16" t="n">
-        <v>6.525110163847657</v>
+        <v>6.525110163847707</v>
       </c>
       <c r="N16" t="n">
-        <v>9.584400044559324</v>
+        <v>9.584400044559381</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5428447094972029</v>
+        <v>0.5428447094972526</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.467499168241545</v>
+        <v>2.467499168241574</v>
       </c>
       <c r="K17" t="n">
-        <v>24.45480817519271</v>
+        <v>24.45480817519275</v>
       </c>
       <c r="L17" t="n">
-        <v>45.43452728890729</v>
+        <v>45.43452728890735</v>
       </c>
       <c r="M17" t="n">
-        <v>63.51034485950059</v>
+        <v>63.51034485950065</v>
       </c>
       <c r="N17" t="n">
-        <v>66.4254757014166</v>
+        <v>66.42547570141666</v>
       </c>
       <c r="O17" t="n">
-        <v>57.26835895343534</v>
+        <v>57.26835895343542</v>
       </c>
       <c r="P17" t="n">
-        <v>34.76317361050971</v>
+        <v>34.76317361050977</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.398662934967163</v>
+        <v>6.398662934967206</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>21.32678528056493</v>
+        <v>21.32678528056496</v>
       </c>
       <c r="L18" t="n">
-        <v>47.62662517105474</v>
+        <v>47.62662517105478</v>
       </c>
       <c r="M18" t="n">
-        <v>63.49674396958338</v>
+        <v>63.49674396958344</v>
       </c>
       <c r="N18" t="n">
-        <v>71.07175948935097</v>
+        <v>71.071759489351</v>
       </c>
       <c r="O18" t="n">
-        <v>55.92685871985324</v>
+        <v>55.92685871985328</v>
       </c>
       <c r="P18" t="n">
-        <v>36.97725307666553</v>
+        <v>36.97725307666558</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.296824985098212</v>
+        <v>4.296824985098233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4.924482377316593</v>
+        <v>4.924482377316615</v>
       </c>
       <c r="M19" t="n">
-        <v>6.525110163847657</v>
+        <v>6.525110163847678</v>
       </c>
       <c r="N19" t="n">
-        <v>9.584400044559324</v>
+        <v>9.584400044559352</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5428447094972029</v>
+        <v>0.5428447094972242</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.467499168241545</v>
+        <v>2.467499168241574</v>
       </c>
       <c r="K20" t="n">
-        <v>24.45480817519271</v>
+        <v>24.45480817519275</v>
       </c>
       <c r="L20" t="n">
-        <v>45.43452728890729</v>
+        <v>45.43452728890735</v>
       </c>
       <c r="M20" t="n">
-        <v>63.51034485950059</v>
+        <v>63.51034485950065</v>
       </c>
       <c r="N20" t="n">
-        <v>66.4254757014166</v>
+        <v>66.42547570141666</v>
       </c>
       <c r="O20" t="n">
-        <v>57.26835895343534</v>
+        <v>57.26835895343542</v>
       </c>
       <c r="P20" t="n">
-        <v>34.76317361050971</v>
+        <v>34.76317361050977</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.398662934967163</v>
+        <v>6.398662934967206</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.32678528056493</v>
+        <v>21.32678528056496</v>
       </c>
       <c r="L21" t="n">
-        <v>47.62662517105474</v>
+        <v>47.62662517105478</v>
       </c>
       <c r="M21" t="n">
-        <v>63.49674396958338</v>
+        <v>63.49674396958344</v>
       </c>
       <c r="N21" t="n">
-        <v>71.07175948935097</v>
+        <v>71.071759489351</v>
       </c>
       <c r="O21" t="n">
-        <v>55.92685871985324</v>
+        <v>55.92685871985328</v>
       </c>
       <c r="P21" t="n">
-        <v>36.97725307666553</v>
+        <v>36.97725307666558</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.296824985098212</v>
+        <v>4.296824985098233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>4.924482377316593</v>
+        <v>4.924482377316615</v>
       </c>
       <c r="M22" t="n">
-        <v>6.525110163847657</v>
+        <v>6.525110163847678</v>
       </c>
       <c r="N22" t="n">
-        <v>9.584400044559324</v>
+        <v>9.584400044559352</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5428447094972029</v>
+        <v>0.5428447094972242</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.64761804676709</v>
+        <v>44.64761804676699</v>
       </c>
       <c r="K44" t="n">
-        <v>87.67187230626085</v>
+        <v>87.67187230626071</v>
       </c>
       <c r="L44" t="n">
-        <v>123.8608853786927</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M44" t="n">
-        <v>150.7747793758133</v>
+        <v>150.7747793758131</v>
       </c>
       <c r="N44" t="n">
-        <v>155.1019400003607</v>
+        <v>155.1019400003605</v>
       </c>
       <c r="O44" t="n">
-        <v>141.0030296224487</v>
+        <v>141.0030296224485</v>
       </c>
       <c r="P44" t="n">
-        <v>106.2287777564391</v>
+        <v>106.2287777564389</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.06635539044811</v>
+        <v>60.06635539044797</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>18.89360532308057</v>
+        <v>18.89360532308051</v>
       </c>
       <c r="K45" t="n">
-        <v>64.26460912288459</v>
+        <v>64.26460912288451</v>
       </c>
       <c r="L45" t="n">
-        <v>105.3618281836314</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M45" t="n">
-        <v>130.8710026916631</v>
+        <v>130.8710026916629</v>
       </c>
       <c r="N45" t="n">
-        <v>140.2292143614403</v>
+        <v>140.2292143614402</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1924189223226</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P45" t="n">
-        <v>87.75344272945946</v>
+        <v>87.75344272945935</v>
       </c>
       <c r="Q45" t="n">
-        <v>38.23936308181635</v>
+        <v>38.23936308181628</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>20.18768008979551</v>
+        <v>20.18768008979545</v>
       </c>
       <c r="L46" t="n">
-        <v>38.06747010903238</v>
+        <v>38.06747010903229</v>
       </c>
       <c r="M46" t="n">
-        <v>41.46974373716152</v>
+        <v>41.46974373716144</v>
       </c>
       <c r="N46" t="n">
-        <v>43.69812833659626</v>
+        <v>43.69812833659618</v>
       </c>
       <c r="O46" t="n">
-        <v>32.0523942541173</v>
+        <v>32.05239425411722</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62828140614094</v>
+        <v>19.62828140614088</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
